--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$103</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$205</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$103</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="208">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -69,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">superadmin</t>
@@ -1340,7 +1344,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1435,7 +1439,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1462,11 +1466,11 @@
   </sheetPr>
   <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E203" activeCellId="0" sqref="E203"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
@@ -1508,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>10001</v>
       </c>
@@ -1527,18 +1531,17 @@
       <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>10002</v>
       </c>
@@ -1552,23 +1555,22 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>10003</v>
       </c>
@@ -1582,23 +1584,22 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>10004</v>
       </c>
@@ -1612,23 +1613,22 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>10005</v>
       </c>
@@ -1642,23 +1642,22 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>10006</v>
       </c>
@@ -1672,23 +1671,22 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>10007</v>
       </c>
@@ -1702,23 +1700,22 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>10008</v>
       </c>
@@ -1732,23 +1729,22 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>10009</v>
       </c>
@@ -1762,23 +1758,22 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10010</v>
       </c>
@@ -1792,23 +1787,22 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10011</v>
       </c>
@@ -1822,23 +1816,22 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>10012</v>
       </c>
@@ -1852,23 +1845,22 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>10013</v>
       </c>
@@ -1882,23 +1874,22 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>10014</v>
       </c>
@@ -1912,653 +1903,631 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>10015</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>10016</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>10017</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G18" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>10018</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>10019</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G20" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>10020</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G21" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>10021</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G22" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>10022</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G23" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>10023</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G24" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>10024</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G25" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>10025</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G26" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>10026</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G27" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>10027</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G28" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>10028</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G29" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>10029</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G30" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>10030</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G31" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>10031</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G32" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>10310</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G33" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>10313</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G34" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>10317</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>10319</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>10063</v>
       </c>
@@ -2575,20 +2544,19 @@
         <v>12</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>10064</v>
       </c>
@@ -2602,23 +2570,22 @@
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>10065</v>
       </c>
@@ -2632,23 +2599,22 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>10066</v>
       </c>
@@ -2662,23 +2628,22 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>10067</v>
       </c>
@@ -2692,23 +2657,22 @@
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>10068</v>
       </c>
@@ -2722,23 +2686,22 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>10069</v>
       </c>
@@ -2752,23 +2715,22 @@
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>10070</v>
       </c>
@@ -2782,23 +2744,22 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>10071</v>
       </c>
@@ -2812,23 +2773,22 @@
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>10072</v>
       </c>
@@ -2842,23 +2802,22 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>10073</v>
       </c>
@@ -2872,23 +2831,22 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>10074</v>
       </c>
@@ -2902,23 +2860,22 @@
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>10075</v>
       </c>
@@ -2932,23 +2889,22 @@
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G49" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>10076</v>
       </c>
@@ -2962,80 +2918,77 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>10077</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>10078</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,452 +2996,437 @@
         <v>10079</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>10080</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>10081</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>10082</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>10083</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>10084</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>10085</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>10086</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>10087</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>10088</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>10089</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>10090</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>10091</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>10092</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>10093</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>10094</v>
       </c>
@@ -3502,23 +3440,22 @@
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>10095</v>
       </c>
@@ -3532,23 +3469,22 @@
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F69" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G69" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>10096</v>
       </c>
@@ -3562,23 +3498,22 @@
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>10097</v>
       </c>
@@ -3592,23 +3527,22 @@
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>10098</v>
       </c>
@@ -3622,23 +3556,22 @@
         <v>11</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>10099</v>
       </c>
@@ -3652,23 +3585,22 @@
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>10100</v>
       </c>
@@ -3682,23 +3614,22 @@
         <v>11</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>10101</v>
       </c>
@@ -3712,23 +3643,22 @@
         <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>10102</v>
       </c>
@@ -3742,23 +3672,22 @@
         <v>11</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>10103</v>
       </c>
@@ -3772,23 +3701,22 @@
         <v>11</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>10104</v>
       </c>
@@ -3802,23 +3730,22 @@
         <v>11</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>10105</v>
       </c>
@@ -3832,23 +3759,22 @@
         <v>11</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>10106</v>
       </c>
@@ -3862,23 +3788,22 @@
         <v>11</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>10107</v>
       </c>
@@ -3892,668 +3817,645 @@
         <v>11</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>10108</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>10109</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>10110</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>10111</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>10112</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>10113</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G87" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>10114</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>10115</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G89" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>10116</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G90" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>10117</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>10118</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G92" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>10119</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G93" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>10120</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G94" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>10121</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G95" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>10122</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G96" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>10123</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G97" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>10124</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G98" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>10125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>10126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G100" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>10127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>10128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G102" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>10129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G103" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,20 +4472,19 @@
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G104" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,20 +4501,19 @@
         <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="F105" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G105" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G105" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,20 +4530,19 @@
         <v>11</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G106" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,20 +4559,19 @@
         <v>11</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G107" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4690,20 +4588,19 @@
         <v>11</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G108" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,20 +4617,19 @@
         <v>11</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G109" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,20 +4646,19 @@
         <v>11</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G110" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,20 +4675,19 @@
         <v>11</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G111" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4810,20 +4704,19 @@
         <v>11</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G112" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,20 +4733,19 @@
         <v>11</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G113" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,20 +4762,19 @@
         <v>11</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G114" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,20 +4791,19 @@
         <v>11</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G115" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,20 +4820,19 @@
         <v>11</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G116" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,20 +4849,19 @@
         <v>11</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G117" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,29 +4869,28 @@
         <v>10015</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G118" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5011,29 +4898,28 @@
         <v>10016</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G119" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5041,29 +4927,28 @@
         <v>10017</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G120" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,29 +4956,28 @@
         <v>10018</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G121" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,29 +4985,28 @@
         <v>10019</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G122" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,29 +5014,28 @@
         <v>10020</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G123" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,29 +5043,28 @@
         <v>10021</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G124" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,29 +5072,28 @@
         <v>10022</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G125" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,29 +5101,28 @@
         <v>10023</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G126" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,29 +5130,28 @@
         <v>10024</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G127" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5281,29 +5159,28 @@
         <v>10025</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G128" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,29 +5188,28 @@
         <v>10026</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G129" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,29 +5217,28 @@
         <v>10027</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G130" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,29 +5246,28 @@
         <v>10028</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G131" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5401,29 +5275,28 @@
         <v>10029</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G132" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5431,29 +5304,28 @@
         <v>10030</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G133" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5461,29 +5333,28 @@
         <v>10031</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G134" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,29 +5362,28 @@
         <v>10310</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G135" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,29 +5391,28 @@
         <v>10313</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G136" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,26 +5420,25 @@
         <v>10126</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G137" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,20 +5455,19 @@
         <v>11</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G138" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,20 +5484,19 @@
         <v>11</v>
       </c>
       <c r="E139" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F139" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="F139" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G139" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G139" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5647,20 +5513,19 @@
         <v>11</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G140" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,20 +5542,19 @@
         <v>11</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G141" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,20 +5571,19 @@
         <v>11</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G142" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5737,20 +5600,19 @@
         <v>11</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G143" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,20 +5629,19 @@
         <v>11</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G144" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,20 +5658,19 @@
         <v>11</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G145" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5827,20 +5687,19 @@
         <v>11</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G146" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5857,20 +5716,19 @@
         <v>11</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G147" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,20 +5745,19 @@
         <v>11</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G148" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5917,20 +5774,19 @@
         <v>11</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G149" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5947,20 +5803,19 @@
         <v>11</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G150" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5977,20 +5832,19 @@
         <v>11</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G151" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5998,29 +5852,28 @@
         <v>10015</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G152" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6028,29 +5881,28 @@
         <v>10016</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G153" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6058,29 +5910,28 @@
         <v>10017</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G154" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,29 +5939,28 @@
         <v>10018</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G155" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6118,29 +5968,28 @@
         <v>10019</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G156" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6148,29 +5997,28 @@
         <v>10020</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G157" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6178,29 +6026,28 @@
         <v>10021</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G158" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6208,29 +6055,28 @@
         <v>10022</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G159" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6238,29 +6084,28 @@
         <v>10023</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G160" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6268,29 +6113,28 @@
         <v>10024</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G161" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6298,29 +6142,28 @@
         <v>10025</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G162" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,29 +6171,28 @@
         <v>10026</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G163" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6358,29 +6200,28 @@
         <v>10027</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G164" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6388,29 +6229,28 @@
         <v>10028</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G165" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6418,29 +6258,28 @@
         <v>10029</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G166" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6448,29 +6287,28 @@
         <v>10030</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G167" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6478,29 +6316,28 @@
         <v>10031</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G168" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6508,29 +6345,28 @@
         <v>10310</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G169" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6538,29 +6374,28 @@
         <v>10313</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G170" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,26 +6403,25 @@
         <v>10126</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G171" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6604,20 +6438,19 @@
         <v>11</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G172" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6634,20 +6467,19 @@
         <v>11</v>
       </c>
       <c r="E173" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F173" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="F173" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G173" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G173" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,20 +6496,19 @@
         <v>11</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G174" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6694,20 +6525,19 @@
         <v>11</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G175" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6724,20 +6554,19 @@
         <v>11</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G176" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6754,20 +6583,19 @@
         <v>11</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G177" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,20 +6612,19 @@
         <v>11</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G178" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6814,20 +6641,19 @@
         <v>11</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G179" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6844,20 +6670,19 @@
         <v>11</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G180" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,20 +6699,19 @@
         <v>11</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G181" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6904,20 +6728,19 @@
         <v>11</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G182" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6934,20 +6757,19 @@
         <v>11</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G183" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6964,20 +6786,19 @@
         <v>11</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G184" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6994,20 +6815,19 @@
         <v>11</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G185" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7015,29 +6835,28 @@
         <v>10015</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G186" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7045,29 +6864,28 @@
         <v>10016</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G187" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7075,29 +6893,28 @@
         <v>10017</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G188" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7105,29 +6922,28 @@
         <v>10018</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G189" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7135,29 +6951,28 @@
         <v>10019</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G190" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7165,29 +6980,28 @@
         <v>10020</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G191" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,29 +7009,28 @@
         <v>10021</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G192" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7225,29 +7038,28 @@
         <v>10022</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G193" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,29 +7067,28 @@
         <v>10023</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G194" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,29 +7096,28 @@
         <v>10024</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G195" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7315,29 +7125,28 @@
         <v>10025</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G196" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,29 +7154,28 @@
         <v>10026</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G197" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7375,29 +7183,28 @@
         <v>10027</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G198" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7405,29 +7212,28 @@
         <v>10028</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G199" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7435,29 +7241,28 @@
         <v>10029</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G200" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7465,29 +7270,28 @@
         <v>10030</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G201" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,29 +7299,28 @@
         <v>10031</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G202" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7525,29 +7328,28 @@
         <v>10310</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G203" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7555,29 +7357,28 @@
         <v>10313</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G204" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7585,30 +7386,29 @@
         <v>10126</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G205" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I103"/>
+  <autoFilter ref="A1:I205"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$103</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$I$103</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="243">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -336,6 +336,9 @@
     <t xml:space="preserve">fra</t>
   </si>
   <si>
+    <t xml:space="preserve">Groupe sanguin</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "113",
@@ -350,6 +353,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">État civil</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "101",
@@ -399,6 +405,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">Type d'inscription</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "Document-based",
@@ -413,6 +422,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">Mode de réclamation</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "101",
@@ -434,6 +446,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">Le sexe</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "MLE",
@@ -455,6 +470,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">Statut de résidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "FR",
@@ -469,6 +487,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">فصيلة الد</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "101",
@@ -540,6 +561,9 @@
 		"code": "114",
 		"value": "غير قابل للتطبيق"
 	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحالة الحالة الإجتماعي</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -593,6 +617,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">نوع التسجي</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "Document-based",
@@ -607,6 +634,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">طريقة المطالبة</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "101",
@@ -628,6 +658,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">جنس</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "MLE",
@@ -649,6 +682,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">حالة الإقامة</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "FR",
@@ -663,10 +699,16 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">يفضل المستخدم اللغة</t>
+  </si>
+  <si>
     <t xml:space="preserve">{"value":"عربى","code":"ara"}</t>
   </si>
   <si>
     <t xml:space="preserve">{"value":"عربي","code":"ara"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ರಕ್ತದ ವಿಧ</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -768,6 +810,9 @@
 		"code": "114",
 		"value": "ಅನ್ವಯಿಸುವುದಿಲ್ಲ"
 	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವೈವಾಹಿಕ ಸ್ಥಿತಿ</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -820,6 +865,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">ನೋಂದಣಿ ಪ್ರಕಾರ</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "Document- based",
@@ -834,6 +882,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">ಕ್ಲೈಮ್ ಮೋಡ್</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "101",
@@ -855,6 +906,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">ಲಿಂಗ</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "MLE",
@@ -876,6 +930,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">ನಿವಾಸ ಸ್ಥಿತಿ</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "FR",
@@ -890,7 +947,13 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">ಬಳಕೆದಾರ ಆದ್ಯತೆಯ ಭಾಷೆ</t>
+  </si>
+  <si>
     <t xml:space="preserve">{"value":" francais","code":"fra"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रक्त प्रकार</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -994,6 +1057,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">वैवाहिक स्थिति</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "101",
@@ -1043,6 +1109,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">पंजीकरण प्रकार</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "Document-based",
@@ -1055,6 +1124,9 @@
 		"code": "Introducer-based",
 		"value": "परिचय-आधारित"
 	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">दावे का तरीका</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1079,6 +1151,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">लिंग</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "MLE",
@@ -1100,6 +1175,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">आवास की स्थिति</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "FR",
@@ -1114,6 +1192,12 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">उपयोगकर्ता पसंदीदा भाषा</t>
+  </si>
+  <si>
+    <t xml:space="preserve">இரத்த வகை</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "101",
@@ -1194,6 +1278,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve"> இரத்த வகை</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "112",
@@ -1213,6 +1300,9 @@
 		"code": "114",
 		"value": "பொருந்தாது"
 	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">திருமண நிலை</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1266,6 +1356,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">பதிவு வகை</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "Document-based",
@@ -1282,6 +1375,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">உரிமைகோரல் முறை</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "101",
@@ -1303,6 +1399,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">பாலினம்</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "MLE",
@@ -1324,6 +1423,9 @@
 	}</t>
   </si>
   <si>
+    <t xml:space="preserve">குடியிருப்பு நிலை</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "FR",
@@ -1336,6 +1438,9 @@
 		"code": "NFR",
 		"value": "வெளிநாட்டவர் அல்லாதவர்"
 	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பயனர் விருப்பமான மொழி</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1572,7 @@
   <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="B206" activeCellId="0" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1920,7 +2025,7 @@
     </row>
     <row r="16" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>10015</v>
+        <v>10103</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>30</v>
@@ -1949,7 +2054,7 @@
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>10016</v>
+        <v>10104</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>30</v>
@@ -1978,7 +2083,7 @@
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>10017</v>
+        <v>10105</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>30</v>
@@ -2007,7 +2112,7 @@
     </row>
     <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>10018</v>
+        <v>10106</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>30</v>
@@ -2036,7 +2141,7 @@
     </row>
     <row r="20" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>10019</v>
+        <v>10107</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>30</v>
@@ -2065,7 +2170,7 @@
     </row>
     <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>10020</v>
+        <v>10108</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>30</v>
@@ -2094,7 +2199,7 @@
     </row>
     <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>10021</v>
+        <v>10109</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>30</v>
@@ -2123,7 +2228,7 @@
     </row>
     <row r="23" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>10022</v>
+        <v>10181</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>39</v>
@@ -2152,7 +2257,7 @@
     </row>
     <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>10023</v>
+        <v>10182</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>39</v>
@@ -2181,7 +2286,7 @@
     </row>
     <row r="25" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>10024</v>
+        <v>10145</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>43</v>
@@ -2210,7 +2315,7 @@
     </row>
     <row r="26" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>10025</v>
+        <v>10146</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>43</v>
@@ -2239,7 +2344,7 @@
     </row>
     <row r="27" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>10026</v>
+        <v>10147</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>43</v>
@@ -2268,7 +2373,7 @@
     </row>
     <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>10027</v>
+        <v>10085</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>48</v>
@@ -2297,7 +2402,7 @@
     </row>
     <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>10028</v>
+        <v>10086</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>48</v>
@@ -2326,7 +2431,7 @@
     </row>
     <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>10029</v>
+        <v>10087</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>48</v>
@@ -2355,7 +2460,7 @@
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>10030</v>
+        <v>10193</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>53</v>
@@ -2384,7 +2489,7 @@
     </row>
     <row r="32" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>10031</v>
+        <v>10194</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>53</v>
@@ -2413,7 +2518,7 @@
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>10310</v>
+        <v>10163</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>56</v>
@@ -2442,7 +2547,7 @@
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>10313</v>
+        <v>10164</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>56</v>
@@ -2471,7 +2576,7 @@
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>10317</v>
+        <v>10165</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>56</v>
@@ -2500,7 +2605,7 @@
     </row>
     <row r="36" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>10319</v>
+        <v>10166</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>56</v>
@@ -2529,13 +2634,13 @@
     </row>
     <row r="37" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>10063</v>
+        <v>10015</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>11</v>
@@ -2558,13 +2663,13 @@
     </row>
     <row r="38" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>10064</v>
+        <v>10016</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>11</v>
@@ -2587,13 +2692,13 @@
     </row>
     <row r="39" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>10065</v>
+        <v>10017</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>11</v>
@@ -2616,13 +2721,13 @@
     </row>
     <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>10066</v>
+        <v>10018</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>11</v>
@@ -2645,13 +2750,13 @@
     </row>
     <row r="41" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>10067</v>
+        <v>10019</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>11</v>
@@ -2674,13 +2779,13 @@
     </row>
     <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>10068</v>
+        <v>10020</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>11</v>
@@ -2703,13 +2808,13 @@
     </row>
     <row r="43" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>10069</v>
+        <v>10021</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>11</v>
@@ -2732,13 +2837,13 @@
     </row>
     <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>10070</v>
+        <v>10022</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>11</v>
@@ -2761,13 +2866,13 @@
     </row>
     <row r="45" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>10071</v>
+        <v>10023</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>11</v>
@@ -2790,13 +2895,13 @@
     </row>
     <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>10072</v>
+        <v>10024</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>11</v>
@@ -2819,13 +2924,13 @@
     </row>
     <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>10073</v>
+        <v>10025</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>11</v>
@@ -2848,13 +2953,13 @@
     </row>
     <row r="48" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>10074</v>
+        <v>10026</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>11</v>
@@ -2877,19 +2982,19 @@
     </row>
     <row r="49" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>10075</v>
+        <v>10027</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>61</v>
@@ -2906,19 +3011,19 @@
     </row>
     <row r="50" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>10076</v>
+        <v>10028</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>61</v>
@@ -2935,19 +3040,19 @@
     </row>
     <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>10077</v>
+        <v>10110</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>61</v>
@@ -2964,19 +3069,19 @@
     </row>
     <row r="52" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>10078</v>
+        <v>10111</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>61</v>
@@ -2993,19 +3098,19 @@
     </row>
     <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>10079</v>
+        <v>10112</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>61</v>
@@ -3022,19 +3127,19 @@
     </row>
     <row r="54" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>10080</v>
+        <v>10113</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>61</v>
@@ -3051,19 +3156,19 @@
     </row>
     <row r="55" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>10081</v>
+        <v>10114</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>61</v>
@@ -3080,19 +3185,19 @@
     </row>
     <row r="56" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>10082</v>
+        <v>10115</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>61</v>
@@ -3109,19 +3214,19 @@
     </row>
     <row r="57" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>10083</v>
+        <v>10116</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>61</v>
@@ -3138,19 +3243,19 @@
     </row>
     <row r="58" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>10084</v>
+        <v>10183</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>61</v>
@@ -3167,19 +3272,19 @@
     </row>
     <row r="59" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>10085</v>
+        <v>10184</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>61</v>
@@ -3196,19 +3301,19 @@
     </row>
     <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>10086</v>
+        <v>10148</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>61</v>
@@ -3225,19 +3330,19 @@
     </row>
     <row r="61" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>10087</v>
+        <v>10149</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>61</v>
@@ -3254,19 +3359,19 @@
     </row>
     <row r="62" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>10088</v>
+        <v>10150</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>61</v>
@@ -3283,19 +3388,19 @@
     </row>
     <row r="63" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>10089</v>
+        <v>10088</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>61</v>
@@ -3312,19 +3417,19 @@
     </row>
     <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>10090</v>
+        <v>10089</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>61</v>
@@ -3341,19 +3446,19 @@
     </row>
     <row r="65" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>10091</v>
+        <v>10090</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>61</v>
@@ -3370,19 +3475,19 @@
     </row>
     <row r="66" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>10092</v>
+        <v>10195</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>61</v>
@@ -3399,19 +3504,19 @@
     </row>
     <row r="67" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>10093</v>
+        <v>10196</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>61</v>
@@ -3428,22 +3533,22 @@
     </row>
     <row r="68" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>10094</v>
+        <v>10029</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>14</v>
@@ -3457,22 +3562,22 @@
     </row>
     <row r="69" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>10095</v>
+        <v>10030</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>14</v>
@@ -3486,22 +3591,22 @@
     </row>
     <row r="70" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>10096</v>
+        <v>10031</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>14</v>
@@ -3515,22 +3620,22 @@
     </row>
     <row r="71" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>10097</v>
+        <v>10032</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>14</v>
@@ -3544,22 +3649,22 @@
     </row>
     <row r="72" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>10098</v>
+        <v>10033</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>14</v>
@@ -3573,22 +3678,22 @@
     </row>
     <row r="73" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>10099</v>
+        <v>10034</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>14</v>
@@ -3602,13 +3707,13 @@
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>10100</v>
+        <v>10035</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>11</v>
@@ -3617,7 +3722,7 @@
         <v>22</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>14</v>
@@ -3631,13 +3736,13 @@
     </row>
     <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>10101</v>
+        <v>10036</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>11</v>
@@ -3646,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>14</v>
@@ -3660,13 +3765,13 @@
     </row>
     <row r="76" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>10102</v>
+        <v>10037</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>11</v>
@@ -3675,7 +3780,7 @@
         <v>24</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>14</v>
@@ -3689,22 +3794,22 @@
     </row>
     <row r="77" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>10103</v>
+        <v>10038</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>14</v>
@@ -3718,13 +3823,13 @@
     </row>
     <row r="78" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>10104</v>
+        <v>10039</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>11</v>
@@ -3733,7 +3838,7 @@
         <v>26</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>14</v>
@@ -3747,22 +3852,22 @@
     </row>
     <row r="79" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>10105</v>
+        <v>10040</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>14</v>
@@ -3776,22 +3881,22 @@
     </row>
     <row r="80" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
-        <v>10106</v>
+        <v>10041</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>14</v>
@@ -3805,22 +3910,22 @@
     </row>
     <row r="81" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>10107</v>
+        <v>10042</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>14</v>
@@ -3834,22 +3939,22 @@
     </row>
     <row r="82" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>10108</v>
+        <v>10117</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>14</v>
@@ -3863,22 +3968,22 @@
     </row>
     <row r="83" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>10109</v>
+        <v>10118</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>14</v>
@@ -3892,22 +3997,22 @@
     </row>
     <row r="84" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>10110</v>
+        <v>10119</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>14</v>
@@ -3921,22 +4026,22 @@
     </row>
     <row r="85" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>10111</v>
+        <v>10120</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>14</v>
@@ -3950,22 +4055,22 @@
     </row>
     <row r="86" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>10112</v>
+        <v>10121</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>14</v>
@@ -3979,22 +4084,22 @@
     </row>
     <row r="87" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>10113</v>
+        <v>10122</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>14</v>
@@ -4008,22 +4113,22 @@
     </row>
     <row r="88" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <v>10114</v>
+        <v>10123</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>14</v>
@@ -4037,22 +4142,22 @@
     </row>
     <row r="89" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
-        <v>10115</v>
+        <v>10185</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>14</v>
@@ -4066,22 +4171,22 @@
     </row>
     <row r="90" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>10116</v>
+        <v>10186</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>14</v>
@@ -4095,22 +4200,22 @@
     </row>
     <row r="91" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>10117</v>
+        <v>10151</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>14</v>
@@ -4124,22 +4229,22 @@
     </row>
     <row r="92" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
-        <v>10118</v>
+        <v>10152</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>14</v>
@@ -4153,22 +4258,22 @@
     </row>
     <row r="93" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>10119</v>
+        <v>10153</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>14</v>
@@ -4182,22 +4287,22 @@
     </row>
     <row r="94" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>10120</v>
+        <v>10091</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>14</v>
@@ -4211,22 +4316,22 @@
     </row>
     <row r="95" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>10121</v>
+        <v>10092</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>14</v>
@@ -4240,22 +4345,22 @@
     </row>
     <row r="96" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>10122</v>
+        <v>10093</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>14</v>
@@ -4269,22 +4374,22 @@
     </row>
     <row r="97" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>10123</v>
+        <v>10197</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>14</v>
@@ -4298,22 +4403,22 @@
     </row>
     <row r="98" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>10124</v>
+        <v>10198</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>14</v>
@@ -4326,23 +4431,23 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>10125</v>
+      <c r="A99" s="2" t="n">
+        <v>10167</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>14</v>
@@ -4355,8 +4460,8 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>10126</v>
+      <c r="A100" s="2" t="n">
+        <v>10168</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>56</v>
@@ -4365,7 +4470,7 @@
         <v>57</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>13</v>
@@ -4381,8 +4486,8 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
-        <v>10127</v>
+      <c r="A101" s="2" t="n">
+        <v>10169</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>56</v>
@@ -4391,7 +4496,7 @@
         <v>60</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>61</v>
@@ -4407,20 +4512,20 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
-        <v>10128</v>
+      <c r="A102" s="2" t="n">
+        <v>10170</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>14</v>
@@ -4433,20 +4538,20 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
-        <v>10129</v>
+      <c r="A103" s="2" t="n">
+        <v>10171</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>14</v>
@@ -4460,22 +4565,22 @@
     </row>
     <row r="104" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
-        <v>10001</v>
+        <v>10043</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>14</v>
@@ -4489,22 +4594,22 @@
     </row>
     <row r="105" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
-        <v>10002</v>
+        <v>10044</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>14</v>
@@ -4518,22 +4623,22 @@
     </row>
     <row r="106" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
-        <v>10003</v>
+        <v>10045</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>14</v>
@@ -4547,22 +4652,22 @@
     </row>
     <row r="107" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
-        <v>10004</v>
+        <v>10046</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>14</v>
@@ -4576,22 +4681,22 @@
     </row>
     <row r="108" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>10005</v>
+        <v>10047</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>14</v>
@@ -4605,22 +4710,22 @@
     </row>
     <row r="109" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
-        <v>10006</v>
+        <v>10048</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>14</v>
@@ -4634,22 +4739,22 @@
     </row>
     <row r="110" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
-        <v>10007</v>
+        <v>10049</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>14</v>
@@ -4663,22 +4768,22 @@
     </row>
     <row r="111" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
-        <v>10008</v>
+        <v>10050</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>14</v>
@@ -4692,22 +4797,22 @@
     </row>
     <row r="112" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>10009</v>
+        <v>10051</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>14</v>
@@ -4721,22 +4826,22 @@
     </row>
     <row r="113" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
-        <v>10010</v>
+        <v>10052</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>14</v>
@@ -4750,22 +4855,22 @@
     </row>
     <row r="114" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>10011</v>
+        <v>10053</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>14</v>
@@ -4779,22 +4884,22 @@
     </row>
     <row r="115" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
-        <v>10012</v>
+        <v>10054</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>14</v>
@@ -4808,22 +4913,22 @@
     </row>
     <row r="116" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>10013</v>
+        <v>10055</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>14</v>
@@ -4837,22 +4942,22 @@
     </row>
     <row r="117" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>10014</v>
+        <v>10056</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>14</v>
@@ -4866,22 +4971,22 @@
     </row>
     <row r="118" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>10015</v>
+        <v>10124</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F118" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>14</v>
@@ -4895,22 +5000,22 @@
     </row>
     <row r="119" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>10016</v>
+        <v>10125</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>14</v>
@@ -4924,22 +5029,22 @@
     </row>
     <row r="120" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>10017</v>
+        <v>10126</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>14</v>
@@ -4953,22 +5058,22 @@
     </row>
     <row r="121" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
-        <v>10018</v>
+        <v>10127</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>14</v>
@@ -4982,22 +5087,22 @@
     </row>
     <row r="122" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>10019</v>
+        <v>10128</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>14</v>
@@ -5011,22 +5116,22 @@
     </row>
     <row r="123" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
-        <v>10020</v>
+        <v>10129</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>14</v>
@@ -5040,22 +5145,22 @@
     </row>
     <row r="124" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>10021</v>
+        <v>10130</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>14</v>
@@ -5069,22 +5174,22 @@
     </row>
     <row r="125" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
-        <v>10022</v>
+        <v>10187</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>14</v>
@@ -5098,22 +5203,22 @@
     </row>
     <row r="126" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
-        <v>10023</v>
+        <v>10188</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>14</v>
@@ -5127,22 +5232,22 @@
     </row>
     <row r="127" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
-        <v>10024</v>
+        <v>10154</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>14</v>
@@ -5156,22 +5261,22 @@
     </row>
     <row r="128" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
-        <v>10025</v>
+        <v>10155</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>14</v>
@@ -5185,22 +5290,22 @@
     </row>
     <row r="129" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
-        <v>10026</v>
+        <v>10156</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>14</v>
@@ -5214,22 +5319,22 @@
     </row>
     <row r="130" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
-        <v>10027</v>
+        <v>10094</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>14</v>
@@ -5243,22 +5348,22 @@
     </row>
     <row r="131" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
-        <v>10028</v>
+        <v>10095</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>14</v>
@@ -5272,22 +5377,22 @@
     </row>
     <row r="132" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
-        <v>10029</v>
+        <v>10096</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>14</v>
@@ -5301,22 +5406,22 @@
     </row>
     <row r="133" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
-        <v>10030</v>
+        <v>10199</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>14</v>
@@ -5330,22 +5435,22 @@
     </row>
     <row r="134" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
-        <v>10031</v>
+        <v>10200</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>14</v>
@@ -5357,15 +5462,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="n">
-        <v>10310</v>
+        <v>10172</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>11</v>
@@ -5374,7 +5479,7 @@
         <v>58</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>14</v>
@@ -5386,24 +5491,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="n">
-        <v>10313</v>
+        <v>10173</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>14</v>
@@ -5415,21 +5520,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
-        <v>10126</v>
+    <row r="137" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
+        <v>10174</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>14</v>
@@ -5443,22 +5548,22 @@
     </row>
     <row r="138" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
-        <v>10001</v>
+        <v>10057</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>14</v>
@@ -5472,22 +5577,22 @@
     </row>
     <row r="139" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
-        <v>10002</v>
+        <v>10058</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>14</v>
@@ -5501,22 +5606,22 @@
     </row>
     <row r="140" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
-        <v>10003</v>
+        <v>10059</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>14</v>
@@ -5530,22 +5635,22 @@
     </row>
     <row r="141" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
-        <v>10004</v>
+        <v>10060</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>14</v>
@@ -5559,22 +5664,22 @@
     </row>
     <row r="142" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
-        <v>10005</v>
+        <v>10061</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>14</v>
@@ -5588,22 +5693,22 @@
     </row>
     <row r="143" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
-        <v>10006</v>
+        <v>10062</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>14</v>
@@ -5617,22 +5722,22 @@
     </row>
     <row r="144" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
-        <v>10007</v>
+        <v>10063</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>14</v>
@@ -5646,22 +5751,22 @@
     </row>
     <row r="145" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
-        <v>10008</v>
+        <v>10064</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>14</v>
@@ -5675,22 +5780,22 @@
     </row>
     <row r="146" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
-        <v>10009</v>
+        <v>10065</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>14</v>
@@ -5704,22 +5809,22 @@
     </row>
     <row r="147" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
-        <v>10010</v>
+        <v>10066</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>14</v>
@@ -5733,22 +5838,22 @@
     </row>
     <row r="148" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
-        <v>10011</v>
+        <v>10067</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>14</v>
@@ -5762,22 +5867,22 @@
     </row>
     <row r="149" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
-        <v>10012</v>
+        <v>10068</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>14</v>
@@ -5791,22 +5896,22 @@
     </row>
     <row r="150" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
-        <v>10013</v>
+        <v>10069</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>14</v>
@@ -5820,22 +5925,22 @@
     </row>
     <row r="151" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
-        <v>10014</v>
+        <v>10070</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>14</v>
@@ -5849,22 +5954,22 @@
     </row>
     <row r="152" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
-        <v>10015</v>
+        <v>10131</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>14</v>
@@ -5878,22 +5983,22 @@
     </row>
     <row r="153" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
-        <v>10016</v>
+        <v>10132</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>14</v>
@@ -5907,22 +6012,22 @@
     </row>
     <row r="154" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
-        <v>10017</v>
+        <v>10133</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>14</v>
@@ -5936,22 +6041,22 @@
     </row>
     <row r="155" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
-        <v>10018</v>
+        <v>10134</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>14</v>
@@ -5965,22 +6070,22 @@
     </row>
     <row r="156" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
-        <v>10019</v>
+        <v>10135</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>14</v>
@@ -5994,22 +6099,22 @@
     </row>
     <row r="157" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
-        <v>10020</v>
+        <v>10136</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>14</v>
@@ -6023,22 +6128,22 @@
     </row>
     <row r="158" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
-        <v>10021</v>
+        <v>10137</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>14</v>
@@ -6052,22 +6157,22 @@
     </row>
     <row r="159" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
-        <v>10022</v>
+        <v>10189</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E159" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F159" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="F159" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>14</v>
@@ -6081,22 +6186,22 @@
     </row>
     <row r="160" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
-        <v>10023</v>
+        <v>10190</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>14</v>
@@ -6110,22 +6215,22 @@
     </row>
     <row r="161" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
-        <v>10024</v>
+        <v>10157</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>14</v>
@@ -6139,22 +6244,22 @@
     </row>
     <row r="162" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
-        <v>10025</v>
+        <v>10158</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>14</v>
@@ -6168,22 +6273,22 @@
     </row>
     <row r="163" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
-        <v>10026</v>
+        <v>10159</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>14</v>
@@ -6197,22 +6302,22 @@
     </row>
     <row r="164" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
-        <v>10027</v>
+        <v>10097</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>14</v>
@@ -6226,22 +6331,22 @@
     </row>
     <row r="165" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
-        <v>10028</v>
+        <v>10098</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>14</v>
@@ -6255,22 +6360,22 @@
     </row>
     <row r="166" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
-        <v>10029</v>
+        <v>10099</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>14</v>
@@ -6284,22 +6389,22 @@
     </row>
     <row r="167" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
-        <v>10030</v>
+        <v>10201</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>14</v>
@@ -6313,22 +6418,22 @@
     </row>
     <row r="168" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
-        <v>10031</v>
+        <v>10202</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>14</v>
@@ -6340,15 +6445,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="n">
-        <v>10310</v>
+        <v>10175</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>11</v>
@@ -6357,7 +6462,7 @@
         <v>58</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>14</v>
@@ -6369,15 +6474,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="n">
-        <v>10313</v>
+        <v>10176</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>11</v>
@@ -6386,7 +6491,7 @@
         <v>59</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>14</v>
@@ -6398,21 +6503,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="n">
-        <v>10126</v>
+    <row r="171" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="n">
+        <v>10177</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>14</v>
@@ -6426,22 +6531,22 @@
     </row>
     <row r="172" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
-        <v>10001</v>
+        <v>10071</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>14</v>
@@ -6455,22 +6560,22 @@
     </row>
     <row r="173" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
-        <v>10002</v>
+        <v>10072</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>14</v>
@@ -6484,22 +6589,22 @@
     </row>
     <row r="174" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
-        <v>10003</v>
+        <v>10073</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>14</v>
@@ -6513,22 +6618,22 @@
     </row>
     <row r="175" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
-        <v>10004</v>
+        <v>10074</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>14</v>
@@ -6542,22 +6647,22 @@
     </row>
     <row r="176" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
-        <v>10005</v>
+        <v>10075</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>14</v>
@@ -6571,22 +6676,22 @@
     </row>
     <row r="177" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
-        <v>10006</v>
+        <v>10076</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>14</v>
@@ -6600,22 +6705,22 @@
     </row>
     <row r="178" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
-        <v>10007</v>
+        <v>10077</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>14</v>
@@ -6629,22 +6734,22 @@
     </row>
     <row r="179" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
-        <v>10008</v>
+        <v>10078</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>14</v>
@@ -6658,22 +6763,22 @@
     </row>
     <row r="180" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
-        <v>10009</v>
+        <v>10079</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>14</v>
@@ -6687,22 +6792,22 @@
     </row>
     <row r="181" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
-        <v>10010</v>
+        <v>10080</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>14</v>
@@ -6716,22 +6821,22 @@
     </row>
     <row r="182" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
-        <v>10011</v>
+        <v>10081</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>14</v>
@@ -6745,22 +6850,22 @@
     </row>
     <row r="183" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
-        <v>10012</v>
+        <v>10082</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>14</v>
@@ -6774,22 +6879,22 @@
     </row>
     <row r="184" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
-        <v>10013</v>
+        <v>10083</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>14</v>
@@ -6803,22 +6908,22 @@
     </row>
     <row r="185" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
-        <v>10014</v>
+        <v>10084</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>14</v>
@@ -6832,22 +6937,22 @@
     </row>
     <row r="186" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
-        <v>10015</v>
+        <v>10138</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>14</v>
@@ -6861,22 +6966,22 @@
     </row>
     <row r="187" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
-        <v>10016</v>
+        <v>10139</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>14</v>
@@ -6890,22 +6995,22 @@
     </row>
     <row r="188" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
-        <v>10017</v>
+        <v>10140</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>14</v>
@@ -6919,22 +7024,22 @@
     </row>
     <row r="189" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
-        <v>10018</v>
+        <v>10141</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>14</v>
@@ -6948,22 +7053,22 @@
     </row>
     <row r="190" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
-        <v>10019</v>
+        <v>10142</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>14</v>
@@ -6977,22 +7082,22 @@
     </row>
     <row r="191" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
-        <v>10020</v>
+        <v>10143</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>14</v>
@@ -7006,22 +7111,22 @@
     </row>
     <row r="192" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
-        <v>10021</v>
+        <v>10144</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>14</v>
@@ -7035,22 +7140,22 @@
     </row>
     <row r="193" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
-        <v>10022</v>
+        <v>10191</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>14</v>
@@ -7064,22 +7169,22 @@
     </row>
     <row r="194" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
-        <v>10023</v>
+        <v>10192</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>14</v>
@@ -7093,22 +7198,22 @@
     </row>
     <row r="195" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
-        <v>10024</v>
+        <v>10160</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>14</v>
@@ -7122,22 +7227,22 @@
     </row>
     <row r="196" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
-        <v>10025</v>
+        <v>10161</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>14</v>
@@ -7151,22 +7256,22 @@
     </row>
     <row r="197" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
-        <v>10026</v>
+        <v>10162</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>14</v>
@@ -7180,22 +7285,22 @@
     </row>
     <row r="198" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
-        <v>10027</v>
+        <v>10100</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>14</v>
@@ -7209,22 +7314,22 @@
     </row>
     <row r="199" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
-        <v>10028</v>
+        <v>10101</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>14</v>
@@ -7238,22 +7343,22 @@
     </row>
     <row r="200" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
-        <v>10029</v>
+        <v>10102</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E200" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F200" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="F200" s="0" t="s">
-        <v>177</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>14</v>
@@ -7267,22 +7372,22 @@
     </row>
     <row r="201" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
-        <v>10030</v>
+        <v>10203</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>14</v>
@@ -7296,22 +7401,22 @@
     </row>
     <row r="202" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
-        <v>10031</v>
+        <v>10204</v>
       </c>
       <c r="B202" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>14</v>
@@ -7323,15 +7428,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="n">
-        <v>10310</v>
+        <v>10178</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>11</v>
@@ -7340,7 +7445,7 @@
         <v>58</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>14</v>
@@ -7352,15 +7457,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="n">
-        <v>10313</v>
+        <v>10179</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>11</v>
@@ -7369,7 +7474,7 @@
         <v>59</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>14</v>
@@ -7381,21 +7486,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="n">
-        <v>10126</v>
+    <row r="205" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="n">
+        <v>10180</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>14</v>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masterdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D82890-078C-47AC-B85D-A0869578475F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$103</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -75,9 +76,6 @@
     <t>eng</t>
   </si>
   <si>
-    <t>superadmin</t>
-  </si>
-  <si>
     <t>now()</t>
   </si>
   <si>
@@ -327,352 +325,152 @@
     <t>{"value":"English","code":"eng"}</t>
   </si>
   <si>
-    <t>{"value":"français","code":"fra"}</t>
-  </si>
-  <si>
-    <t>Langue préférée de l'utilisateur</t>
-  </si>
-  <si>
-    <t>fra</t>
+    <t>{"value":"हिंदी","code":"hin"}</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "113",
-		"value": "Je ne sais pas"
+		"value": "पता नहीं"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "114",
-		"value": "N'est pas applicable"
+		"value": "लागू नहीं"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "101",
-		"value": "Seule"
+		"value": "अकेला"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "102",
-		"value": "Mariée"
+		"value": "विवाहित"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "103",
-		"value": "Veuve"
+		"value": "विधवा"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "104",
-		"value": "Divorcée"
+		"value": "तलाकशुदा"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "105",
-		"value": "Séparés légalement"
+		"value": "कानूनी तौर पर अलग"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "106",
-		"value": "Annulé"
+		"value": "रद्द"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "107",
-		"value": "Annulé"
+		"value": "निरस्त माना"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "Document-based",
-		"value": "Basé sur des documents"
+		"value": "दस्तावेज़ के आधार पर"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "Introducer-based",
-		"value": "Basé sur l'introducteur"
+		"value": "परिचयकर्ता आधारित"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "101",
-		"value": "Ramasser"
+		"value": "उठाना"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "102",
-		"value": "Livraison à une adresse permanente"
+		"value": "स्थायी पते पर डिलीवरी"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "103",
-		"value": "Livraison à l'adresse actuelle"
+		"value": "वर्तमान पते पर डिलीवरी"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "MLE",
-		"value": "Mâle"
+		"value": "पुरुष"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "FLE",
-		"value": "Femelle"
+		"value": "महिला"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "OTH",
-		"value": "Autres"
+		"value": "अन्य"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "FR",
-		"value": "Étrangère"
+		"value": "परदेशी"
 	}</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "NFR",
-		"value": "Non-étranger"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "أ",
-	}</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "أ +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "أ-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "ب",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "ب +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ب-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "110",
-		"value": "ا",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "112",
-		"value": "س-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "113",
-		"value": "لا اعرف"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "114",
-		"value": "غير قابل للتطبيق"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "غير مرتبطة
-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "زوجت"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "الأرامل"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "مطلق"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "مطلق من الناحية القانونية
-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ملغاة"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "107",
-		"value": "مبطل"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Document-based",
-		"value": "مستند إلى المستند"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Introducer-based",
-		"value": "المعرف القائم"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "يلتقط"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "التسليم إلى العنوان الدائم"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "التسليم إلى العنوان الحالي"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "MLE",
-		"value": "ذكر"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FLE",
-		"value": "أنثى"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "OTH",
-		"value": "آحرون"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FR",
-		"value": "أجنبي"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "NFR",
-		"value": "غير أجنبي"
-	}</t>
-  </si>
-  <si>
-    <t>{"value":"عربى","code":"ara"}</t>
-  </si>
-  <si>
-    <t>{"value":"عربي","code":"ara"}</t>
+		"value": "गैर विदेशी"
+	}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -731,7 +529,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1014,27 +812,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B103"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -1087,13 +885,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -1107,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -1117,13 +915,13 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -1137,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -1147,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -1167,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1177,13 +975,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -1197,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1207,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -1227,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1237,13 +1035,13 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -1257,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1267,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -1287,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1297,13 +1095,13 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -1317,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1327,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -1347,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1357,13 +1155,13 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -1377,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1387,13 +1185,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -1407,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1417,13 +1215,13 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -1437,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1447,13 +1245,13 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -1467,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1477,28 +1275,28 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>10015</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
@@ -1507,27 +1305,27 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10016</v>
       </c>
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1537,27 +1335,27 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10017</v>
       </c>
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1567,27 +1365,27 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10018</v>
       </c>
       <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1597,27 +1395,27 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>10019</v>
       </c>
       <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1627,27 +1425,27 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10020</v>
       </c>
       <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -1657,27 +1455,27 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10021</v>
       </c>
       <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1687,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10022</v>
       </c>
       <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
@@ -1717,27 +1515,27 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>10023</v>
       </c>
       <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1747,28 +1545,28 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>10024</v>
       </c>
       <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
@@ -1777,27 +1575,27 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>10025</v>
       </c>
       <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1807,27 +1605,27 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>10026</v>
       </c>
       <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1837,28 +1635,28 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>10027</v>
       </c>
       <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
@@ -1867,27 +1665,27 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>10028</v>
       </c>
       <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1897,27 +1695,27 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>10029</v>
       </c>
       <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
         <v>47</v>
       </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -1927,28 +1725,28 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10030</v>
       </c>
       <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
@@ -1957,27 +1755,27 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10031</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -1987,28 +1785,28 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>10310</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
@@ -2016,28 +1814,28 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>14</v>
+      <c r="H33" t="s">
+        <v>59</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>10313</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -2046,76 +1844,76 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>14</v>
+      <c r="H34" t="s">
+        <v>59</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>10001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="3" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>10002</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>10317</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>10319</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>60</v>
+      <c r="F36" t="s">
+        <v>58</v>
       </c>
       <c r="G36" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>10063</v>
+        <v>10003</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -2127,25 +1925,25 @@
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G37" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>10064</v>
+        <v>10004</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -2157,25 +1955,25 @@
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G38" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>10065</v>
+        <v>10005</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -2187,25 +1985,25 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>10066</v>
+        <v>10006</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -2217,25 +2015,25 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G40" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>10067</v>
+        <v>10007</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -2247,25 +2045,25 @@
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G41" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>10068</v>
+        <v>10008</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -2277,25 +2075,25 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G42" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>10069</v>
+        <v>10009</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -2307,25 +2105,25 @@
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G43" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>10070</v>
+        <v>10010</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -2337,25 +2135,25 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G44" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>10071</v>
+        <v>10011</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -2367,25 +2165,25 @@
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G45" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>10072</v>
+        <v>10012</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
@@ -2397,25 +2195,25 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G46" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>10073</v>
+        <v>10013</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -2427,25 +2225,25 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G47" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>10074</v>
+        <v>10014</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -2457,1662 +2255,764 @@
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G48" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>10075</v>
+        <v>10015</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G49" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>10076</v>
+        <v>10016</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G50" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>10077</v>
+        <v>10017</v>
       </c>
       <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
         <v>29</v>
       </c>
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G51" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>10078</v>
+        <v>10018</v>
       </c>
       <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
         <v>29</v>
       </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
       <c r="D52" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G52" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>10079</v>
+        <v>10019</v>
       </c>
       <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
         <v>29</v>
       </c>
-      <c r="C53" t="s">
-        <v>30</v>
-      </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G53" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>10080</v>
+        <v>10020</v>
       </c>
       <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
         <v>29</v>
       </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
       <c r="D54" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G54" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>10081</v>
+        <v>10021</v>
       </c>
       <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" t="s">
-        <v>30</v>
-      </c>
       <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G55" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>10082</v>
+        <v>10022</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G56" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>10083</v>
+        <v>10023</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G57" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>10084</v>
+        <v>10024</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G58" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>10085</v>
+        <v>10025</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G59" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>10086</v>
+        <v>10026</v>
       </c>
       <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
         <v>42</v>
       </c>
-      <c r="C60" t="s">
-        <v>43</v>
-      </c>
       <c r="D60" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G60" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>10087</v>
+        <v>10027</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G61" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>10088</v>
+        <v>10028</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G62" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>10089</v>
+        <v>10029</v>
       </c>
       <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
         <v>47</v>
       </c>
-      <c r="C63" t="s">
-        <v>48</v>
-      </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G63" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>10090</v>
+        <v>10030</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G64" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>10091</v>
+        <v>10031</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G65" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>10092</v>
-      </c>
-      <c r="B66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>10310</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G66" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>10093</v>
-      </c>
-      <c r="B67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>10313</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G67" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>10094</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>10095</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>10096</v>
-      </c>
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>10097</v>
-      </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>10098</v>
-      </c>
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>10099</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>10100</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>10101</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>10102</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>10103</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>10104</v>
-      </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>10105</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>10106</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>10107</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>10108</v>
-      </c>
-      <c r="B82" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>10109</v>
-      </c>
-      <c r="B83" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>10110</v>
-      </c>
-      <c r="B84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>10111</v>
-      </c>
-      <c r="B85" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F85" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>10112</v>
-      </c>
-      <c r="B86" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>10113</v>
-      </c>
-      <c r="B87" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" t="s">
-        <v>81</v>
-      </c>
-      <c r="G87" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>10114</v>
-      </c>
-      <c r="B88" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F88" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>10115</v>
-      </c>
-      <c r="B89" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" t="s">
-        <v>81</v>
-      </c>
-      <c r="G89" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>10116</v>
-      </c>
-      <c r="B90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" t="s">
-        <v>81</v>
-      </c>
-      <c r="G90" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>10117</v>
-      </c>
-      <c r="B91" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F91" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>10118</v>
-      </c>
-      <c r="B92" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" t="s">
-        <v>81</v>
-      </c>
-      <c r="G92" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>10119</v>
-      </c>
-      <c r="B93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93" t="s">
-        <v>81</v>
-      </c>
-      <c r="G93" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>10120</v>
-      </c>
-      <c r="B94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F94" t="s">
-        <v>81</v>
-      </c>
-      <c r="G94" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>10121</v>
-      </c>
-      <c r="B95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F95" t="s">
-        <v>81</v>
-      </c>
-      <c r="G95" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>14</v>
-      </c>
-      <c r="I95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>10122</v>
-      </c>
-      <c r="B96" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F96" t="s">
-        <v>81</v>
-      </c>
-      <c r="G96" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>10123</v>
-      </c>
-      <c r="B97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F97" t="s">
-        <v>81</v>
-      </c>
-      <c r="G97" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>10124</v>
-      </c>
-      <c r="B98" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" t="s">
-        <v>52</v>
-      </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" t="s">
-        <v>81</v>
-      </c>
-      <c r="G98" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>10125</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>10126</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>10127</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>10128</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G102" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>10129</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G103" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E68" s="2"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E69" s="2"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E70" s="2"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E71" s="2"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E72" s="2"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E73" s="2"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E74" s="2"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E75" s="2"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E76" s="2"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E77" s="2"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E78" s="2"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E79" s="2"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E80" s="2"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E81" s="2"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E82" s="2"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E83" s="2"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E84" s="2"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E85" s="2"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E86" s="2"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E87" s="2"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E88" s="2"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E89" s="2"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E90" s="2"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E91" s="2"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E92" s="2"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E93" s="2"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E94" s="2"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E95" s="2"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E96" s="2"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E97" s="2"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E98" s="2"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I103"/>
+  <autoFilter ref="A1:I103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masterdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dst-dev-masterdata\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D82890-078C-47AC-B85D-A0869578475F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B71CAF-2059-4EE7-84AB-8C21BA886241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>10310</v>
+        <v>11310</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>54</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>10313</v>
+        <v>11313</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>54</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="35" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>10001</v>
+        <v>11111</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="36" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>10002</v>
+        <v>11002</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="37" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>10003</v>
+        <v>11003</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="38" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>10004</v>
+        <v>11004</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="39" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>10005</v>
+        <v>11005</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="40" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>10006</v>
+        <v>11006</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="41" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>10007</v>
+        <v>11007</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="42" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>10008</v>
+        <v>11008</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="43" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>10009</v>
+        <v>11009</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="44" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>10010</v>
+        <v>11010</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="45" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>10011</v>
+        <v>11011</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="46" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>10012</v>
+        <v>11012</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="47" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>10013</v>
+        <v>11013</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="48" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>10014</v>
+        <v>11014</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="49" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>10015</v>
+        <v>11015</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="50" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>10016</v>
+        <v>11016</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="51" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>10017</v>
+        <v>11017</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="52" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>10018</v>
+        <v>11018</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>10019</v>
+        <v>11019</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="54" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>10020</v>
+        <v>11020</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="55" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>10021</v>
+        <v>11021</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="56" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>10022</v>
+        <v>11022</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="57" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>10023</v>
+        <v>11023</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="58" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>10024</v>
+        <v>11024</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="59" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>10025</v>
+        <v>11025</v>
       </c>
       <c r="B59" t="s">
         <v>41</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="60" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>10026</v>
+        <v>11026</v>
       </c>
       <c r="B60" t="s">
         <v>41</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="61" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>10027</v>
+        <v>11027</v>
       </c>
       <c r="B61" t="s">
         <v>46</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="62" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>10028</v>
+        <v>11028</v>
       </c>
       <c r="B62" t="s">
         <v>46</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="63" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>10029</v>
+        <v>11029</v>
       </c>
       <c r="B63" t="s">
         <v>46</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="64" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>10030</v>
+        <v>11030</v>
       </c>
       <c r="B64" t="s">
         <v>51</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="65" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>10031</v>
+        <v>11031</v>
       </c>
       <c r="B65" t="s">
         <v>51</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>10313</v>
+        <v>11313</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>54</v>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dst-dev-masterdata\mosip-data\mosip_master\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B71CAF-2059-4EE7-84AB-8C21BA886241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +12,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -76,6 +78,9 @@
     <t>eng</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>now()</t>
   </si>
   <si>
@@ -329,9 +334,6 @@
   </si>
   <si>
     <t>hin</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -470,34 +472,374 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -520,9 +862,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -532,19 +1116,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -593,7 +1221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -628,7 +1256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -802,37 +1430,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.54545454545454" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" customWidth="1"/>
-    <col min="5" max="5" width="32.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="21.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="32.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="15.7272727272727" customWidth="1"/>
+    <col min="7" max="7" width="14.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="11.5454545454545" customWidth="1"/>
+    <col min="9" max="9" width="15.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +1484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" ht="72.5" spans="1:9">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -881,17 +1504,17 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" ref="G2:G65" si="0">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="72.5" spans="1:9">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -905,23 +1528,23 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="72.5" spans="1:9">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -935,23 +1558,23 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="72.5" spans="1:9">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -965,23 +1588,23 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="72.5" spans="1:9">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -995,23 +1618,23 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="72.5" spans="1:9">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -1025,23 +1648,23 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="72.5" spans="1:9">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -1055,23 +1678,23 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="72.5" spans="1:9">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -1085,23 +1708,23 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="72.5" spans="1:9">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -1115,23 +1738,23 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="72.5" spans="1:9">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -1145,23 +1768,23 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="72.5" spans="1:9">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -1175,23 +1798,23 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="72.5" spans="1:9">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -1205,23 +1828,23 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="72.5" spans="1:9">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -1235,23 +1858,23 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="72.5" spans="1:9">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -1265,593 +1888,593 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="72.5" spans="1:9">
       <c r="A16">
         <v>10015</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="72.5" spans="1:9">
       <c r="A17">
         <v>10016</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="72.5" spans="1:9">
       <c r="A18">
         <v>10017</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="72.5" spans="1:9">
       <c r="A19">
         <v>10018</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="72.5" spans="1:9">
       <c r="A20">
         <v>10019</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="72.5" spans="1:9">
       <c r="A21">
         <v>10020</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="72.5" spans="1:9">
       <c r="A22">
         <v>10021</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="72.5" spans="1:9">
       <c r="A23">
         <v>10022</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="72.5" spans="1:9">
       <c r="A24">
         <v>10023</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="72.5" spans="1:9">
       <c r="A25">
         <v>10024</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" ht="87" spans="1:9">
       <c r="A26">
         <v>10025</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="72.5" spans="1:9">
       <c r="A27">
         <v>10026</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" ht="72.5" spans="1:9">
       <c r="A28">
         <v>10027</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" ht="72.5" spans="1:9">
       <c r="A29">
         <v>10028</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="72.5" spans="1:9">
       <c r="A30">
         <v>10029</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" ht="72.5" spans="1:9">
       <c r="A31">
         <v>10030</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="72.5" spans="1:9">
       <c r="A32">
         <v>10031</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" ht="29" spans="1:9">
       <c r="A33" s="2">
         <v>11310</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" ht="29" spans="1:9">
       <c r="A34" s="2">
         <v>11313</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" ht="72.5" spans="1:9">
       <c r="A35">
         <v>11111</v>
       </c>
@@ -1868,20 +2491,20 @@
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G35" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" ht="72.5" spans="1:9">
       <c r="A36">
         <v>11002</v>
       </c>
@@ -1895,23 +2518,23 @@
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G36" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" ht="72.5" spans="1:9">
       <c r="A37">
         <v>11003</v>
       </c>
@@ -1925,23 +2548,23 @@
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G37" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" ht="72.5" spans="1:9">
       <c r="A38">
         <v>11004</v>
       </c>
@@ -1955,23 +2578,23 @@
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G38" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" ht="72.5" spans="1:9">
       <c r="A39">
         <v>11005</v>
       </c>
@@ -1985,23 +2608,23 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G39" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" ht="72.5" spans="1:9">
       <c r="A40">
         <v>11006</v>
       </c>
@@ -2015,23 +2638,23 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G40" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" ht="72.5" spans="1:9">
       <c r="A41">
         <v>11007</v>
       </c>
@@ -2045,23 +2668,23 @@
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G41" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" ht="72.5" spans="1:9">
       <c r="A42">
         <v>11008</v>
       </c>
@@ -2075,23 +2698,23 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G42" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" ht="72.5" spans="1:9">
       <c r="A43">
         <v>11009</v>
       </c>
@@ -2105,23 +2728,23 @@
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G43" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" ht="72.5" spans="1:9">
       <c r="A44">
         <v>11010</v>
       </c>
@@ -2135,23 +2758,23 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G44" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" ht="72.5" spans="1:9">
       <c r="A45">
         <v>11011</v>
       </c>
@@ -2165,23 +2788,23 @@
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G45" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" ht="72.5" spans="1:9">
       <c r="A46">
         <v>11012</v>
       </c>
@@ -2195,23 +2818,23 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G46" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" ht="74.5" spans="1:9">
       <c r="A47">
         <v>11013</v>
       </c>
@@ -2228,20 +2851,20 @@
         <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G47" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" ht="74.5" spans="1:9">
       <c r="A48">
         <v>11014</v>
       </c>
@@ -2258,28 +2881,28 @@
         <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G48" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" ht="74.5" spans="1:9">
       <c r="A49">
         <v>11015</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -2288,28 +2911,28 @@
         <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G49" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" ht="74.5" spans="1:9">
       <c r="A50">
         <v>11016</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
@@ -2318,28 +2941,28 @@
         <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G50" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" ht="74.5" spans="1:9">
       <c r="A51">
         <v>11017</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -2348,28 +2971,28 @@
         <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G51" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" ht="74.5" spans="1:9">
       <c r="A52">
         <v>11018</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2378,28 +3001,28 @@
         <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G52" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" ht="74.5" spans="1:9">
       <c r="A53">
         <v>11019</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -2408,28 +3031,28 @@
         <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G53" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" ht="74.5" spans="1:9">
       <c r="A54">
         <v>11020</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -2438,28 +3061,28 @@
         <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G54" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" ht="74.5" spans="1:9">
       <c r="A55">
         <v>11021</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2468,28 +3091,28 @@
         <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G55" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" ht="74.5" spans="1:9">
       <c r="A56">
         <v>11022</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -2498,28 +3121,28 @@
         <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G56" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" ht="74.5" spans="1:9">
       <c r="A57">
         <v>11023</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -2528,28 +3151,28 @@
         <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G57" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" ht="74.5" spans="1:9">
       <c r="A58">
         <v>11024</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -2558,28 +3181,28 @@
         <v>71</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G58" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" ht="74.5" spans="1:9">
       <c r="A59">
         <v>11025</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
@@ -2588,28 +3211,28 @@
         <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G59" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" ht="74.5" spans="1:9">
       <c r="A60">
         <v>11026</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -2618,28 +3241,28 @@
         <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G60" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" ht="74.5" spans="1:9">
       <c r="A61">
         <v>11027</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
@@ -2648,28 +3271,28 @@
         <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G61" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" ht="74.5" spans="1:9">
       <c r="A62">
         <v>11028</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
@@ -2678,28 +3301,28 @@
         <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G62" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" ht="74.5" spans="1:9">
       <c r="A63">
         <v>11029</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
@@ -2708,28 +3331,28 @@
         <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G63" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" ht="74.5" spans="1:9">
       <c r="A64">
         <v>11030</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -2738,28 +3361,28 @@
         <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G64" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" ht="74.5" spans="1:9">
       <c r="A65">
         <v>11031</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -2768,204 +3391,204 @@
         <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G65" s="3" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" ht="29" spans="1:9">
       <c r="A66" s="2">
         <v>10310</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G66" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" ht="29" spans="1:9">
+      <c r="A67" s="2">
+        <v>12313</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" t="s">
         <v>59</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
-        <v>11313</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" t="s">
-        <v>58</v>
       </c>
       <c r="G67" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7">
       <c r="E68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:7">
       <c r="E69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:7">
       <c r="E70" s="2"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:7">
       <c r="E71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:7">
       <c r="E72" s="2"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:7">
       <c r="E73" s="2"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:7">
       <c r="E74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:7">
       <c r="E75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:7">
       <c r="E76" s="2"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:7">
       <c r="E77" s="2"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:7">
       <c r="E78" s="2"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:7">
       <c r="E79" s="2"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:7">
       <c r="E80" s="2"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:7">
       <c r="E81" s="2"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:7">
       <c r="E82" s="2"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:7">
       <c r="E83" s="2"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:7">
       <c r="E84" s="2"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:7">
       <c r="E85" s="2"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:7">
       <c r="E86" s="2"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:7">
       <c r="E87" s="2"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:7">
       <c r="E88" s="2"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:7">
       <c r="E89" s="2"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:7">
       <c r="E90" s="2"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:7">
       <c r="E91" s="2"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:7">
       <c r="E92" s="2"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:7">
       <c r="E93" s="2"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:7">
       <c r="E94" s="2"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:7">
       <c r="E95" s="2"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:7">
       <c r="E96" s="2"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:7">
       <c r="E97" s="2"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:7">
       <c r="E98" s="2"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2975,7 +3598,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="E100" s="2"/>
@@ -2984,7 +3607,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="E101" s="2"/>
@@ -2993,7 +3616,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="E102" s="2"/>
@@ -3002,7 +3625,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="E103" s="2"/>
@@ -3012,8 +3635,11 @@
       <c r="I103" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:I103">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D43FDC9-5C27-4182-B387-CB6925DAEBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53687CE5-62DB-4E22-B0EE-0ED36471B82D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,33 +27,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={5777D694-F647-422A-B6BB-CF572EF8D9A9}</author>
-  </authors>
-  <commentList>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{5777D694-F647-422A-B6BB-CF572EF8D9A9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Comment:
-    Is this citizen? yes</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="482">
   <si>
     <t>id</t>
   </si>
@@ -112,79 +87,1465 @@
     <t>fra</t>
   </si>
   <si>
-    <t xml:space="preserve">
-	{
-		"code": "MLE",
-		"value": "Mâle"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FLE",
-		"value": "Femelle"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "OTH",
-		"value": "Autres"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FR",
-		"value": "Étrangère"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "NFR",
-		"value": "Non-étranger"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "MIG",
-		"value": "Migrant"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "DEP",
-		"value": "Deplacé interne"
-	}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-	{
-		"code": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>REF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-		"value": "Refugié"
-	}</t>
-    </r>
+    <t>{
+	"code": "RE",
+	"value": "REFUGIE"
+}</t>
+  </si>
+  <si>
+    <t>{
+	"code": "CI",
+	"value": "CITOYEN"
+}</t>
+  </si>
+  <si>
+    <t>{
+	"code": "ET",
+	"value": "ETRANGER"
+}</t>
+  </si>
+  <si>
+    <t>{
+	"code": "MI",
+	"value": "MIGRANT"
+}</t>
+  </si>
+  <si>
+    <t>{
+	"code": "DI",
+	"value": "DEPLACE INTERNE"
+}</t>
+  </si>
+  <si>
+    <t>{
+	"code": "M",
+	"value": "MASCULIN"
+}</t>
+  </si>
+  <si>
+    <t>{
+	"code": "A",
+	"value": "AUTRE"
+}</t>
+  </si>
+  <si>
+    <t>{
+	"code": "F",
+	"value": "FEMININ"
+}</t>
+  </si>
+  <si>
+    <t>11299</t>
+  </si>
+  <si>
+    <t>countryOfCitizenship</t>
+  </si>
+  <si>
+    <t>{"code": "TOG", "value": "Togo"}</t>
+  </si>
+  <si>
+    <t>11063</t>
+  </si>
+  <si>
+    <t>{"code": "BRA", "value": "Brésil"}</t>
+  </si>
+  <si>
+    <t>11236</t>
+  </si>
+  <si>
+    <t>{"code": "THA", "value": "Thaïlande"}</t>
+  </si>
+  <si>
+    <t>11091</t>
+  </si>
+  <si>
+    <t>{"code": "DMA", "value": "Dominique"}</t>
+  </si>
+  <si>
+    <t>11098</t>
+  </si>
+  <si>
+    <t>{"code": "EST", "value": "Estonie"}</t>
+  </si>
+  <si>
+    <t>11143</t>
+  </si>
+  <si>
+    <t>{"code": "JPN", "value": "Japon"}</t>
+  </si>
+  <si>
+    <t>11206</t>
+  </si>
+  <si>
+    <t>{"code": "MAF", "value": "Saint-Martin (partie française)"}</t>
+  </si>
+  <si>
+    <t>11154</t>
+  </si>
+  <si>
+    <t>{"code": "LSO", "value": "Lesotho"}</t>
+  </si>
+  <si>
+    <t>11065</t>
+  </si>
+  <si>
+    <t>{"code": "BGR", "value": "Bulgarie"}</t>
+  </si>
+  <si>
+    <t>11069</t>
+  </si>
+  <si>
+    <t>{"code": "KHM", "value": "Cambodge"}</t>
+  </si>
+  <si>
+    <t>11064</t>
+  </si>
+  <si>
+    <t>{"code": "BRN", "value": "Brunéi Darussalam"}</t>
+  </si>
+  <si>
+    <t>11070</t>
+  </si>
+  <si>
+    <t>{"code": "CMR", "value": "Cameroun"}</t>
+  </si>
+  <si>
+    <t>11072</t>
+  </si>
+  <si>
+    <t>{"code": "CAF", "value": "République centrafricaine"}</t>
+  </si>
+  <si>
+    <t>11073</t>
+  </si>
+  <si>
+    <t>{"code": "TCD", "value": "Tchad"}</t>
+  </si>
+  <si>
+    <t>11075</t>
+  </si>
+  <si>
+    <t>{"code": "CHN", "value": "Chine"}</t>
+  </si>
+  <si>
+    <t>11076</t>
+  </si>
+  <si>
+    <t>{"code": "CXR", "value": "Île Christmas"}</t>
+  </si>
+  <si>
+    <t>11077</t>
+  </si>
+  <si>
+    <t>{"code": "CYP", "value": "Chypre"}</t>
+  </si>
+  <si>
+    <t>11078</t>
+  </si>
+  <si>
+    <t>{"code": "CCK", "value": "Îles Cocos (Keeling)"}</t>
+  </si>
+  <si>
+    <t>11079</t>
+  </si>
+  <si>
+    <t>{"code": "COL", "value": "Colombie"}</t>
+  </si>
+  <si>
+    <t>11080</t>
+  </si>
+  <si>
+    <t>{"code": "COM", "value": "Comores"}</t>
+  </si>
+  <si>
+    <t>11082</t>
+  </si>
+  <si>
+    <t>{"code": "COD", "value": "République démocratique du Congo"}</t>
+  </si>
+  <si>
+    <t>11083</t>
+  </si>
+  <si>
+    <t>{"code": "COK", "value": "Îles Cook"}</t>
+  </si>
+  <si>
+    <t>11084</t>
+  </si>
+  <si>
+    <t>{"code": "CIV", "value": "Côte d'Ivoire"}</t>
+  </si>
+  <si>
+    <t>11085</t>
+  </si>
+  <si>
+    <t>{"code": "HRV", "value": "Croatie"}</t>
+  </si>
+  <si>
+    <t>11088</t>
+  </si>
+  <si>
+    <t>{"code": "CZE", "value": "Tchéquie"}</t>
+  </si>
+  <si>
+    <t>11089</t>
+  </si>
+  <si>
+    <t>{"code": "DNK", "value": "Danemark"}</t>
+  </si>
+  <si>
+    <t>11066</t>
+  </si>
+  <si>
+    <t>{"code": "BFA", "value": "Burkina Faso"}</t>
+  </si>
+  <si>
+    <t>11067</t>
+  </si>
+  <si>
+    <t>{"code": "BDI", "value": "Burundi"}</t>
+  </si>
+  <si>
+    <t>11068</t>
+  </si>
+  <si>
+    <t>{"code": "CPV", "value": "Cabo Verde"}</t>
+  </si>
+  <si>
+    <t>11071</t>
+  </si>
+  <si>
+    <t>{"code": "CAN", "value": "Canada"}</t>
+  </si>
+  <si>
+    <t>11074</t>
+  </si>
+  <si>
+    <t>{"code": "CHL", "value": "Chile"}</t>
+  </si>
+  <si>
+    <t>11081</t>
+  </si>
+  <si>
+    <t>{"code": "COG", "value": "Congo"}</t>
+  </si>
+  <si>
+    <t>11086</t>
+  </si>
+  <si>
+    <t>{"code": "CUB", "value": "Cuba"}</t>
+  </si>
+  <si>
+    <t>11087</t>
+  </si>
+  <si>
+    <t>{"code": "CUW", "value": "Curaçao"}</t>
+  </si>
+  <si>
+    <t>11090</t>
+  </si>
+  <si>
+    <t>{"code": "DJI", "value": "Djibouti"}</t>
+  </si>
+  <si>
+    <t>11095</t>
+  </si>
+  <si>
+    <t>{"code": "SLV", "value": "El Salvador"}</t>
+  </si>
+  <si>
+    <t>11099</t>
+  </si>
+  <si>
+    <t>{"code": "SWZ", "value": "Eswatini"}</t>
+  </si>
+  <si>
+    <t>11105</t>
+  </si>
+  <si>
+    <t>{"code": "FRA", "value": "France"}</t>
+  </si>
+  <si>
+    <t>11109</t>
+  </si>
+  <si>
+    <t>{"code": "GAB", "value": "Gabon"}</t>
+  </si>
+  <si>
+    <t>11113</t>
+  </si>
+  <si>
+    <t>{"code": "GHA", "value": "Ghana"}</t>
+  </si>
+  <si>
+    <t>11114</t>
+  </si>
+  <si>
+    <t>{"code": "GIB", "value": "Gibraltar"}</t>
+  </si>
+  <si>
+    <t>11118</t>
+  </si>
+  <si>
+    <t>{"code": "GLP", "value": "Guadeloupe"}</t>
+  </si>
+  <si>
+    <t>11119</t>
+  </si>
+  <si>
+    <t>{"code": "GUM", "value": "Guam"}</t>
+  </si>
+  <si>
+    <t>11120</t>
+  </si>
+  <si>
+    <t>{"code": "GTM", "value": "Guatemala"}</t>
+  </si>
+  <si>
+    <t>11122</t>
+  </si>
+  <si>
+    <t>{"code": "GUY", "value": "Guyana"}</t>
+  </si>
+  <si>
+    <t>11128</t>
+  </si>
+  <si>
+    <t>{"code": "HND", "value": "Honduras"}</t>
+  </si>
+  <si>
+    <t>11129</t>
+  </si>
+  <si>
+    <t>{"code": "HKG", "value": "Hong Kong"}</t>
+  </si>
+  <si>
+    <t>11092</t>
+  </si>
+  <si>
+    <t>{"code": "DOM", "value": "République dominicaine"}</t>
+  </si>
+  <si>
+    <t>11093</t>
+  </si>
+  <si>
+    <t>{"code": "ECU", "value": "Équateur"}</t>
+  </si>
+  <si>
+    <t>11094</t>
+  </si>
+  <si>
+    <t>{"code": "EGY", "value": "Égypte"}</t>
+  </si>
+  <si>
+    <t>11096</t>
+  </si>
+  <si>
+    <t>{"code": "GNQ", "value": "Guinée équatoriale"}</t>
+  </si>
+  <si>
+    <t>11097</t>
+  </si>
+  <si>
+    <t>{"code": "ERI", "value": "Érythrée"}</t>
+  </si>
+  <si>
+    <t>11100</t>
+  </si>
+  <si>
+    <t>{"code": "ETH", "value": "Éthiopie"}</t>
+  </si>
+  <si>
+    <t>11101</t>
+  </si>
+  <si>
+    <t>{"code": "FLK", "value": "Îles Malouines"}</t>
+  </si>
+  <si>
+    <t>11102</t>
+  </si>
+  <si>
+    <t>{"code": "FRO", "value": "Îles Féroé"}</t>
+  </si>
+  <si>
+    <t>11103</t>
+  </si>
+  <si>
+    <t>{"code": "FJI", "value": "Fidji"}</t>
+  </si>
+  <si>
+    <t>11104</t>
+  </si>
+  <si>
+    <t>{"code": "FIN", "value": "Finlande"}</t>
+  </si>
+  <si>
+    <t>11106</t>
+  </si>
+  <si>
+    <t>{"code": "GUF", "value": "Guyane française"}</t>
+  </si>
+  <si>
+    <t>11107</t>
+  </si>
+  <si>
+    <t>{"code": "PYF", "value": "Polynésie française"}</t>
+  </si>
+  <si>
+    <t>11108</t>
+  </si>
+  <si>
+    <t>{"code": "ATF", "value": "Terres australes françaises"}</t>
+  </si>
+  <si>
+    <t>11110</t>
+  </si>
+  <si>
+    <t>{"code": "GMB", "value": "Gambie"}</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>{"code": "GEO", "value": "Géorgie"}</t>
+  </si>
+  <si>
+    <t>11112</t>
+  </si>
+  <si>
+    <t>{"code": "DEU", "value": "Allemagne"}</t>
+  </si>
+  <si>
+    <t>11115</t>
+  </si>
+  <si>
+    <t>{"code": "GRC", "value": "Grèce"}</t>
+  </si>
+  <si>
+    <t>11116</t>
+  </si>
+  <si>
+    <t>{"code": "GRL", "value": "Groenland"}</t>
+  </si>
+  <si>
+    <t>11117</t>
+  </si>
+  <si>
+    <t>{"code": "GRD", "value": "Grenade"}</t>
+  </si>
+  <si>
+    <t>11121</t>
+  </si>
+  <si>
+    <t>{"code": "GGY", "value": "Guernesey"}</t>
+  </si>
+  <si>
+    <t>11123</t>
+  </si>
+  <si>
+    <t>{"code": "GIN", "value": "Guinée"}</t>
+  </si>
+  <si>
+    <t>11124</t>
+  </si>
+  <si>
+    <t>{"code": "GNB", "value": "Guinée-Bissau"}</t>
+  </si>
+  <si>
+    <t>11125</t>
+  </si>
+  <si>
+    <t>{"code": "HTI", "value": "Haïti"}</t>
+  </si>
+  <si>
+    <t>11126</t>
+  </si>
+  <si>
+    <t>{"code": "HMD", "value": "Îles Heard et McDonald"}</t>
+  </si>
+  <si>
+    <t>11127</t>
+  </si>
+  <si>
+    <t>{"code": "VAT", "value": "Saint-Siège"}</t>
+  </si>
+  <si>
+    <t>11130</t>
+  </si>
+  <si>
+    <t>{"code": "HUN", "value": "Hongrie"}</t>
+  </si>
+  <si>
+    <t>11131</t>
+  </si>
+  <si>
+    <t>{"code": "ISL", "value": "Islande"}</t>
+  </si>
+  <si>
+    <t>11132</t>
+  </si>
+  <si>
+    <t>{"code": "YEM", "value": "Yémen"}</t>
+  </si>
+  <si>
+    <t>11133</t>
+  </si>
+  <si>
+    <t>{"code": "IND", "value": "Inde"}</t>
+  </si>
+  <si>
+    <t>11134</t>
+  </si>
+  <si>
+    <t>{"code": "IDN", "value": "Indonésie"}</t>
+  </si>
+  <si>
+    <t>11135</t>
+  </si>
+  <si>
+    <t>{"code": "IRN", "value": "Iran (République islamique d')"}</t>
+  </si>
+  <si>
+    <t>11136</t>
+  </si>
+  <si>
+    <t>{"code": "IRQ", "value": "Irak"}</t>
+  </si>
+  <si>
+    <t>11138</t>
+  </si>
+  <si>
+    <t>{"code": "IRL", "value": "Irlande"}</t>
+  </si>
+  <si>
+    <t>11139</t>
+  </si>
+  <si>
+    <t>{"code": "IMN", "value": "Île de Man"}</t>
+  </si>
+  <si>
+    <t>11140</t>
+  </si>
+  <si>
+    <t>{"code": "ISR", "value": "Israël"}</t>
+  </si>
+  <si>
+    <t>11141</t>
+  </si>
+  <si>
+    <t>{"code": "ITA", "value": "Italie"}</t>
+  </si>
+  <si>
+    <t>11142</t>
+  </si>
+  <si>
+    <t>{"code": "JAM", "value": "Jamaïque"}</t>
+  </si>
+  <si>
+    <t>11145</t>
+  </si>
+  <si>
+    <t>{"code": "KAZ", "value": "Kazakhstan"}</t>
+  </si>
+  <si>
+    <t>11146</t>
+  </si>
+  <si>
+    <t>{"code": "KEN", "value": "Kenya"}</t>
+  </si>
+  <si>
+    <t>11147</t>
+  </si>
+  <si>
+    <t>{"code": "KIR", "value": "Kiribati"}</t>
+  </si>
+  <si>
+    <t>11158</t>
+  </si>
+  <si>
+    <t>{"code": "LUX", "value": "Luxembourg"}</t>
+  </si>
+  <si>
+    <t>11159</t>
+  </si>
+  <si>
+    <t>{"code": "MDG", "value": "Madagascar"}</t>
+  </si>
+  <si>
+    <t>11160</t>
+  </si>
+  <si>
+    <t>{"code": "MYS", "value": "Malaysia"}</t>
+  </si>
+  <si>
+    <t>11161</t>
+  </si>
+  <si>
+    <t>{"code": "MWI", "value": "Malawi"}</t>
+  </si>
+  <si>
+    <t>11162</t>
+  </si>
+  <si>
+    <t>{"code": "MDV", "value": "Maldives"}</t>
+  </si>
+  <si>
+    <t>11163</t>
+  </si>
+  <si>
+    <t>{"code": "MLI", "value": "Mali"}</t>
+  </si>
+  <si>
+    <t>11169</t>
+  </si>
+  <si>
+    <t>{"code": "MMR", "value": "Myanmar"}</t>
+  </si>
+  <si>
+    <t>11172</t>
+  </si>
+  <si>
+    <t>{"code": "MCO", "value": "Monaco"}</t>
+  </si>
+  <si>
+    <t>11176</t>
+  </si>
+  <si>
+    <t>{"code": "MOZ", "value": "Mozambique"}</t>
+  </si>
+  <si>
+    <t>11178</t>
+  </si>
+  <si>
+    <t>{"code": "NRU", "value": "Nauru"}</t>
+  </si>
+  <si>
+    <t>11182</t>
+  </si>
+  <si>
+    <t>{"code": "NIC", "value": "Nicaragua"}</t>
+  </si>
+  <si>
+    <t>11183</t>
+  </si>
+  <si>
+    <t>{"code": "NER", "value": "Niger"}</t>
+  </si>
+  <si>
+    <t>11185</t>
+  </si>
+  <si>
+    <t>{"code": "NIU", "value": "Niue"}</t>
+  </si>
+  <si>
+    <t>11188</t>
+  </si>
+  <si>
+    <t>{"code": "OMN", "value": "Oman"}</t>
+  </si>
+  <si>
+    <t>11189</t>
+  </si>
+  <si>
+    <t>{"code": "PAK", "value": "Pakistan"}</t>
+  </si>
+  <si>
+    <t>11191</t>
+  </si>
+  <si>
+    <t>{"code": "PAN", "value": "Panama"}</t>
+  </si>
+  <si>
+    <t>11193</t>
+  </si>
+  <si>
+    <t>{"code": "PRY", "value": "Paraguay"}</t>
+  </si>
+  <si>
+    <t>11144</t>
+  </si>
+  <si>
+    <t>{"code": "JOR", "value": "Jordanie"}</t>
+  </si>
+  <si>
+    <t>11148</t>
+  </si>
+  <si>
+    <t>{"code": "PRK", "value": "Corée (République populaire démocratique de)"}</t>
+  </si>
+  <si>
+    <t>11149</t>
+  </si>
+  <si>
+    <t>{"code": "KOR", "value": "Corée (République de)"}</t>
+  </si>
+  <si>
+    <t>11150</t>
+  </si>
+  <si>
+    <t>{"code": "KWT", "value": "Koweït"}</t>
+  </si>
+  <si>
+    <t>11151</t>
+  </si>
+  <si>
+    <t>{"code": "LAO", "value": "République démocratique populaire lao"}</t>
+  </si>
+  <si>
+    <t>11152</t>
+  </si>
+  <si>
+    <t>{"code": "LVA", "value": "Lettonie"}</t>
+  </si>
+  <si>
+    <t>11153</t>
+  </si>
+  <si>
+    <t>{"code": "LBN", "value": "Liban"}</t>
+  </si>
+  <si>
+    <t>11155</t>
+  </si>
+  <si>
+    <t>{"code": "LBR", "value": "Libéria"}</t>
+  </si>
+  <si>
+    <t>11156</t>
+  </si>
+  <si>
+    <t>{"code": "LBY", "value": "Libye"}</t>
+  </si>
+  <si>
+    <t>11157</t>
+  </si>
+  <si>
+    <t>{"code": "LTU", "value": "Lituanie"}</t>
+  </si>
+  <si>
+    <t>11164</t>
+  </si>
+  <si>
+    <t>{"code": "MLT", "value": "Malte"}</t>
+  </si>
+  <si>
+    <t>11165</t>
+  </si>
+  <si>
+    <t>{"code": "MHL", "value": "Îles Marshall"}</t>
+  </si>
+  <si>
+    <t>11166</t>
+  </si>
+  <si>
+    <t>{"code": "MRT", "value": "Mauritanie"}</t>
+  </si>
+  <si>
+    <t>11167</t>
+  </si>
+  <si>
+    <t>{"code": "MUS", "value": "Maurice"}</t>
+  </si>
+  <si>
+    <t>11168</t>
+  </si>
+  <si>
+    <t>{"code": "MEX", "value": "Mexique"}</t>
+  </si>
+  <si>
+    <t>11170</t>
+  </si>
+  <si>
+    <t>{"code": "FSM", "value": "États fédérés de Micronésie"}</t>
+  </si>
+  <si>
+    <t>11171</t>
+  </si>
+  <si>
+    <t>{"code": "MDA", "value": "Moldavie (République de)"}</t>
+  </si>
+  <si>
+    <t>11173</t>
+  </si>
+  <si>
+    <t>{"code": "MNG", "value": "Mongolie"}</t>
+  </si>
+  <si>
+    <t>11174</t>
+  </si>
+  <si>
+    <t>{"code": "MNE", "value": "Monténégro"}</t>
+  </si>
+  <si>
+    <t>11175</t>
+  </si>
+  <si>
+    <t>{"code": "MAR", "value": "Maroc"}</t>
+  </si>
+  <si>
+    <t>11177</t>
+  </si>
+  <si>
+    <t>{"code": "NAM", "value": "Namibie"}</t>
+  </si>
+  <si>
+    <t>11179</t>
+  </si>
+  <si>
+    <t>{"code": "NPL", "value": "Népal"}</t>
+  </si>
+  <si>
+    <t>11180</t>
+  </si>
+  <si>
+    <t>{"code": "NLD", "value": "Pays-Bas"}</t>
+  </si>
+  <si>
+    <t>11184</t>
+  </si>
+  <si>
+    <t>{"code": "NGA", "value": "Nigéria"}</t>
+  </si>
+  <si>
+    <t>11186</t>
+  </si>
+  <si>
+    <t>{"code": "MKD", "value": "Macédoine du Nord"}</t>
+  </si>
+  <si>
+    <t>11187</t>
+  </si>
+  <si>
+    <t>{"code": "NOR", "value": "Norvège"}</t>
+  </si>
+  <si>
+    <t>11190</t>
+  </si>
+  <si>
+    <t>{"code": "PLW", "value": "Palaos"}</t>
+  </si>
+  <si>
+    <t>11181</t>
+  </si>
+  <si>
+    <t>{"code": "NZL", "value": "la Nouvelle-Zélande"}</t>
+  </si>
+  <si>
+    <t>11192</t>
+  </si>
+  <si>
+    <t>{"code": "PNG", "value": "Papouasie-Nouvelle-Guinée"}</t>
+  </si>
+  <si>
+    <t>11195</t>
+  </si>
+  <si>
+    <t>{"code": "PHL", "value": "Philippines"}</t>
+  </si>
+  <si>
+    <t>11197</t>
+  </si>
+  <si>
+    <t>{"code": "PRT", "value": "Portugal"}</t>
+  </si>
+  <si>
+    <t>11198</t>
+  </si>
+  <si>
+    <t>{"code": "QAT", "value": "Qatar"}</t>
+  </si>
+  <si>
+    <t>11201</t>
+  </si>
+  <si>
+    <t>{"code": "RWA", "value": "Rwanda"}</t>
+  </si>
+  <si>
+    <t>11203</t>
+  </si>
+  <si>
+    <t>{"code": "SHN", "value": "Saint Helena, Ascension and Tristan da Cunha"}</t>
+  </si>
+  <si>
+    <t>11209</t>
+  </si>
+  <si>
+    <t>{"code": "WSM", "value": "Samoa"}</t>
+  </si>
+  <si>
+    <t>11213</t>
+  </si>
+  <si>
+    <t>{"code": "SYC", "value": "Seychelles"}</t>
+  </si>
+  <si>
+    <t>11216</t>
+  </si>
+  <si>
+    <t>{"code": "SLE", "value": "Sierra Leone"}</t>
+  </si>
+  <si>
+    <t>11241</t>
+  </si>
+  <si>
+    <t>{"code": "TLS", "value": "Timor-Leste"}</t>
+  </si>
+  <si>
+    <t>11242</t>
+  </si>
+  <si>
+    <t>{"code": "TGO", "value": "Togo"}</t>
+  </si>
+  <si>
+    <t>11243</t>
+  </si>
+  <si>
+    <t>{"code": "TKL", "value": "Tokelau"}</t>
+  </si>
+  <si>
+    <t>11244</t>
+  </si>
+  <si>
+    <t>{"code": "TON", "value": "Tonga"}</t>
+  </si>
+  <si>
+    <t>11247</t>
+  </si>
+  <si>
+    <t>{"code": "TUR", "value": "Türkiye"}</t>
+  </si>
+  <si>
+    <t>11250</t>
+  </si>
+  <si>
+    <t>{"code": "TUV", "value": "Tuvalu"}</t>
+  </si>
+  <si>
+    <t>11194</t>
+  </si>
+  <si>
+    <t>{"code": "PER", "value": "Pérou"}</t>
+  </si>
+  <si>
+    <t>11196</t>
+  </si>
+  <si>
+    <t>{"code": "POL", "value": "Pologne"}</t>
+  </si>
+  <si>
+    <t>11199</t>
+  </si>
+  <si>
+    <t>{"code": "ROU", "value": "Roumanie"}</t>
+  </si>
+  <si>
+    <t>11200</t>
+  </si>
+  <si>
+    <t>{"code": "RUS", "value": "Fédération de Russie"}</t>
+  </si>
+  <si>
+    <t>11202</t>
+  </si>
+  <si>
+    <t>{"code": "BLM", "value": "Saint-Barthélemy"}</t>
+  </si>
+  <si>
+    <t>11204</t>
+  </si>
+  <si>
+    <t>{"code": "KNA", "value": "Saint-Kitts-et-Nevis"}</t>
+  </si>
+  <si>
+    <t>11205</t>
+  </si>
+  <si>
+    <t>{"code": "LCA", "value": "Sainte-Lucie"}</t>
+  </si>
+  <si>
+    <t>11207</t>
+  </si>
+  <si>
+    <t>{"code": "SPM", "value": "Saint-Pierre-et-Miquelon"}</t>
+  </si>
+  <si>
+    <t>11208</t>
+  </si>
+  <si>
+    <t>{"code": "VCT", "value": "Saint-Vincent-et-les-Grenadines"}</t>
+  </si>
+  <si>
+    <t>11210</t>
+  </si>
+  <si>
+    <t>{"code": "SMR", "value": "Saint-Marin"}</t>
+  </si>
+  <si>
+    <t>11211</t>
+  </si>
+  <si>
+    <t>{"code": "STP", "value": "Sao Tomé-et-Principe"}</t>
+  </si>
+  <si>
+    <t>11212</t>
+  </si>
+  <si>
+    <t>{"code": "SAU", "value": "Arabie saoudite"}</t>
+  </si>
+  <si>
+    <t>11214</t>
+  </si>
+  <si>
+    <t>{"code": "SEN", "value": "Sénégal"}</t>
+  </si>
+  <si>
+    <t>11215</t>
+  </si>
+  <si>
+    <t>{"code": "SRB", "value": "Serbie"}</t>
+  </si>
+  <si>
+    <t>11217</t>
+  </si>
+  <si>
+    <t>{"code": "SGP", "value": "Singapour"}</t>
+  </si>
+  <si>
+    <t>11218</t>
+  </si>
+  <si>
+    <t>{"code": "SXM", "value": "Saint-Martin (partie néerlandaise)"}</t>
+  </si>
+  <si>
+    <t>11219</t>
+  </si>
+  <si>
+    <t>{"code": "SYR", "value": "République arabe syrienne"}</t>
+  </si>
+  <si>
+    <t>11220</t>
+  </si>
+  <si>
+    <t>{"code": "SVK", "value": "Slovaquie"}</t>
+  </si>
+  <si>
+    <t>11221</t>
+  </si>
+  <si>
+    <t>{"code": "SVN", "value": "Slovénie"}</t>
+  </si>
+  <si>
+    <t>11222</t>
+  </si>
+  <si>
+    <t>{"code": "SLB", "value": "Îles Salomon"}</t>
+  </si>
+  <si>
+    <t>11223</t>
+  </si>
+  <si>
+    <t>{"code": "ZAF", "value": "Afrique du Sud"}</t>
+  </si>
+  <si>
+    <t>11224</t>
+  </si>
+  <si>
+    <t>{"code": "SGS", "value": "Géorgie du Sud et les Îles Sandwich du Sud"}</t>
+  </si>
+  <si>
+    <t>11233</t>
+  </si>
+  <si>
+    <t>{"code": "TWN", "value": "Taïwan (Province de Chine)"}</t>
+  </si>
+  <si>
+    <t>11234</t>
+  </si>
+  <si>
+    <t>{"code": "TJK", "value": "Tadjikistan"}</t>
+  </si>
+  <si>
+    <t>11237</t>
+  </si>
+  <si>
+    <t>{"code": "SOM", "value": "République fédérale de Somalie"}</t>
+  </si>
+  <si>
+    <t>11238</t>
+  </si>
+  <si>
+    <t>{"code": "KGZ", "value": "République kirghize"}</t>
+  </si>
+  <si>
+    <t>11239</t>
+  </si>
+  <si>
+    <t>{"code": "ARM", "value": "République d'Arménie"}</t>
+  </si>
+  <si>
+    <t>11240</t>
+  </si>
+  <si>
+    <t>{"code": "CRI", "value": "République du Costa Rica"}</t>
+  </si>
+  <si>
+    <t>11245</t>
+  </si>
+  <si>
+    <t>{"code": "TTO", "value": "Trinité-et-Tobago"}</t>
+  </si>
+  <si>
+    <t>11246</t>
+  </si>
+  <si>
+    <t>{"code": "TUN", "value": "Tunisie"}</t>
+  </si>
+  <si>
+    <t>11248</t>
+  </si>
+  <si>
+    <t>{"code": "TKM", "value": "Turkménistan"}</t>
+  </si>
+  <si>
+    <t>11249</t>
+  </si>
+  <si>
+    <t>{"code": "TCA", "value": "Îles Turques-et-Caïques"}</t>
+  </si>
+  <si>
+    <t>11235</t>
+  </si>
+  <si>
+    <t>{"code": "TZA", "value": "Tanzanie, République unie de"}</t>
+  </si>
+  <si>
+    <t>11252</t>
+  </si>
+  <si>
+    <t>{"code": "UKR", "value": "Ukraine"}</t>
+  </si>
+  <si>
+    <t>11257</t>
+  </si>
+  <si>
+    <t>{"code": "URY", "value": "Uruguay"}</t>
+  </si>
+  <si>
+    <t>11259</t>
+  </si>
+  <si>
+    <t>{"code": "VUT", "value": "Vanuatu"}</t>
+  </si>
+  <si>
+    <t>11045</t>
+  </si>
+  <si>
+    <t>{
+    "code": "AGO",
+    "value": "Angola"
+}</t>
+  </si>
+  <si>
+    <t>11049</t>
+  </si>
+  <si>
+    <t>{
+    "code": "AUT",
+    "value": "Austria"
+}</t>
+  </si>
+  <si>
+    <t>11050</t>
+  </si>
+  <si>
+    <t>{
+    "code": "AZE",
+    "value": "Azerbaijan"
+}</t>
+  </si>
+  <si>
+    <t>11051</t>
+  </si>
+  <si>
+    <t>{
+    "code": "BHS",
+    "value": "Bahamas"
+}</t>
+  </si>
+  <si>
+    <t>11052</t>
+  </si>
+  <si>
+    <t>{
+    "code": "BHR",
+    "value": "Bahrain"
+}</t>
+  </si>
+  <si>
+    <t>11053</t>
+  </si>
+  <si>
+    <t>{
+    "code": "BGD",
+    "value": "Bangladesh"
+}</t>
+  </si>
+  <si>
+    <t>11054</t>
+  </si>
+  <si>
+    <t>{
+    "code": "BRB",
+    "value": "Barbados"
+}</t>
+  </si>
+  <si>
+    <t>11056</t>
+  </si>
+  <si>
+    <t>{
+    "code": "BEL",
+    "value": "Belgium"
+}</t>
+  </si>
+  <si>
+    <t>11057</t>
+  </si>
+  <si>
+    <t>{"code": "BLZ", "value": "Belize"}</t>
+  </si>
+  <si>
+    <t>11058</t>
+  </si>
+  <si>
+    <t>{"code": "BEN", "value": "Benin"}</t>
+  </si>
+  <si>
+    <t>11059</t>
+  </si>
+  <si>
+    <t>{"code": "BTN", "value": "Bhutan"}</t>
+  </si>
+  <si>
+    <t>11062</t>
+  </si>
+  <si>
+    <t>{"code": "BWA", "value": "Botswana"}</t>
+  </si>
+  <si>
+    <t>11230</t>
+  </si>
+  <si>
+    <t>{"code": "SJM", "value": "Svalbard et Jan Mayen"}</t>
+  </si>
+  <si>
+    <t>11231</t>
+  </si>
+  <si>
+    <t>{"code": "SWE", "value": "Suède"}</t>
+  </si>
+  <si>
+    <t>11227</t>
+  </si>
+  <si>
+    <t>{"code": "LKA", "value": "Sri Lanka"}</t>
+  </si>
+  <si>
+    <t>11232</t>
+  </si>
+  <si>
+    <t>{"code": "CHE", "value": "Suisse"}</t>
+  </si>
+  <si>
+    <t>11055</t>
+  </si>
+  <si>
+    <t>{
+    "code": "BLR",
+    "value": "Biélorussie"
+}</t>
+  </si>
+  <si>
+    <t>11046</t>
+  </si>
+  <si>
+    <t>{
+    "code": "ATG",
+    "value": "Antigua-et-Barbuda"
+}</t>
+  </si>
+  <si>
+    <t>11251</t>
+  </si>
+  <si>
+    <t>{"code": "UGA", "value": "Ouganda"}</t>
+  </si>
+  <si>
+    <t>11253</t>
+  </si>
+  <si>
+    <t>{"code": "ARE", "value": "Émirats arabes unis"}</t>
+  </si>
+  <si>
+    <t>11254</t>
+  </si>
+  <si>
+    <t>{"code": "GBR", "value": "Royaume-Uni de Grande-Bretagne et d'Irlande du Nord"}</t>
+  </si>
+  <si>
+    <t>11255</t>
+  </si>
+  <si>
+    <t>{"code": "UMI", "value": "Îles mineures éloignées des États-Unis"}</t>
+  </si>
+  <si>
+    <t>11256</t>
+  </si>
+  <si>
+    <t>{"code": "USA", "value": "États-Unis d'Amérique"}</t>
+  </si>
+  <si>
+    <t>11258</t>
+  </si>
+  <si>
+    <t>{"code": "UZB", "value": "Ouzbékistan"}</t>
+  </si>
+  <si>
+    <t>11042</t>
+  </si>
+  <si>
+    <t>{
+    "code": "ALB",
+    "value": "Albanie"
+}</t>
+  </si>
+  <si>
+    <t>11043</t>
+  </si>
+  <si>
+    <t>{
+    "code": "DZA",
+    "value": "Algérie"
+}</t>
+  </si>
+  <si>
+    <t>11044</t>
+  </si>
+  <si>
+    <t>{
+    "code": "AND",
+    "value": "Andorre"
+}</t>
+  </si>
+  <si>
+    <t>11047</t>
+  </si>
+  <si>
+    <t>{
+    "code": "ARG",
+    "value": "Argentine"
+}</t>
+  </si>
+  <si>
+    <t>11048</t>
+  </si>
+  <si>
+    <t>{
+    "code": "AUS",
+    "value": "Australie"
+}</t>
+  </si>
+  <si>
+    <t>11060</t>
+  </si>
+  <si>
+    <t>{"code": "BOL", "value": "Bolivie (État plurinational de)"}</t>
+  </si>
+  <si>
+    <t>11061</t>
+  </si>
+  <si>
+    <t>{"code": "BIH", "value": "Bosnie-Herzégovine"}</t>
+  </si>
+  <si>
+    <t>11225</t>
+  </si>
+  <si>
+    <t>{"code": "SSD", "value": "Soudan du Sud"}</t>
+  </si>
+  <si>
+    <t>11226</t>
+  </si>
+  <si>
+    <t>{"code": "ESP", "value": "Espagne"}</t>
+  </si>
+  <si>
+    <t>11228</t>
+  </si>
+  <si>
+    <t>{"code": "SDN", "value": "Soudan"}</t>
+  </si>
+  <si>
+    <t>11041</t>
+  </si>
+  <si>
+    <t>{
+    "code": "ALA",
+    "value": "Îles Åland"
+}</t>
+  </si>
+  <si>
+    <t>11229</t>
+  </si>
+  <si>
+    <t>{"code": "SUR", "value": "Surinam"}</t>
+  </si>
+  <si>
+    <t>11267</t>
+  </si>
+  <si>
+    <t>{"code": "ZWE", "value": "Zimbabwe"}</t>
+  </si>
+  <si>
+    <t>11260</t>
+  </si>
+  <si>
+    <t>{"code": "VEN", "value": "Venezuela (République bolivarienne du)"}</t>
+  </si>
+  <si>
+    <t>11261</t>
+  </si>
+  <si>
+    <t>{"code": "VNM", "value": "VietNam"}</t>
+  </si>
+  <si>
+    <t>11262</t>
+  </si>
+  <si>
+    <t>{"code": "VGB", "value": "Îles Vierges (britanniques)"}</t>
+  </si>
+  <si>
+    <t>11264</t>
+  </si>
+  <si>
+    <t>{"code": "WLF", "value": "Wallis et Futuna"}</t>
+  </si>
+  <si>
+    <t>11265</t>
+  </si>
+  <si>
+    <t>{"code": "ESH", "value": "Sahara occidental"}</t>
+  </si>
+  <si>
+    <t>11266</t>
+  </si>
+  <si>
+    <t>{"code": "ZMB", "value": "Zambie"}</t>
+  </si>
+  <si>
+    <t>11263</t>
+  </si>
+  <si>
+    <t>{"code": "VIR", "value": "îles vierges (États-Unis)"}</t>
   </si>
 </sst>
 </file>
@@ -194,7 +1555,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -215,23 +1576,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +1585,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -264,38 +1608,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -304,10 +1622,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,27 +1916,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10319</v>
       </c>
@@ -681,7 +1995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10089</v>
       </c>
@@ -695,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -711,7 +2025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10090</v>
       </c>
@@ -725,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -741,7 +2055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10091</v>
       </c>
@@ -755,7 +2069,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -771,7 +2085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10092</v>
       </c>
@@ -785,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -801,7 +2115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10093</v>
       </c>
@@ -815,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -831,7 +2145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10094</v>
       </c>
@@ -845,7 +2159,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -861,7 +2175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10095</v>
       </c>
@@ -875,7 +2189,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -891,7 +2205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10096</v>
       </c>
@@ -905,7 +2219,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -921,14 +2235,6592 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="D11" s="5"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>141</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>159</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>161</v>
+      </c>
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>163</v>
+      </c>
+      <c r="F78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>165</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>167</v>
+      </c>
+      <c r="F80" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>177</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>179</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>181</v>
+      </c>
+      <c r="F87" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>185</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>187</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>191</v>
+      </c>
+      <c r="F92" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>193</v>
+      </c>
+      <c r="F93" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>197</v>
+      </c>
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>199</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>201</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>203</v>
+      </c>
+      <c r="F98" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>205</v>
+      </c>
+      <c r="F99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>207</v>
+      </c>
+      <c r="F100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>209</v>
+      </c>
+      <c r="F101" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>211</v>
+      </c>
+      <c r="F102" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>215</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>217</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>219</v>
+      </c>
+      <c r="F106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>221</v>
+      </c>
+      <c r="F107" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>223</v>
+      </c>
+      <c r="F108" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>225</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>227</v>
+      </c>
+      <c r="F110" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>229</v>
+      </c>
+      <c r="F111" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>235</v>
+      </c>
+      <c r="F114" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>237</v>
+      </c>
+      <c r="F115" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>239</v>
+      </c>
+      <c r="F116" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>241</v>
+      </c>
+      <c r="F117" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>243</v>
+      </c>
+      <c r="F118" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>245</v>
+      </c>
+      <c r="F119" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>247</v>
+      </c>
+      <c r="F120" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>249</v>
+      </c>
+      <c r="F121" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>250</v>
+      </c>
+      <c r="B122" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>251</v>
+      </c>
+      <c r="F122" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>253</v>
+      </c>
+      <c r="F123" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
+        <v>255</v>
+      </c>
+      <c r="F124" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>257</v>
+      </c>
+      <c r="F125" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>259</v>
+      </c>
+      <c r="F126" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>261</v>
+      </c>
+      <c r="F127" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>263</v>
+      </c>
+      <c r="F128" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" t="s">
+        <v>265</v>
+      </c>
+      <c r="F129" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s">
+        <v>267</v>
+      </c>
+      <c r="F130" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>268</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>269</v>
+      </c>
+      <c r="F131" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>271</v>
+      </c>
+      <c r="F132" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>273</v>
+      </c>
+      <c r="F133" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" t="s">
+        <v>28</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" t="s">
+        <v>275</v>
+      </c>
+      <c r="F134" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>277</v>
+      </c>
+      <c r="F135" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="s">
+        <v>10</v>
+      </c>
+      <c r="I135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>279</v>
+      </c>
+      <c r="F136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>281</v>
+      </c>
+      <c r="F137" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>282</v>
+      </c>
+      <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>283</v>
+      </c>
+      <c r="F138" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>285</v>
+      </c>
+      <c r="F139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>287</v>
+      </c>
+      <c r="F140" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>289</v>
+      </c>
+      <c r="F141" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>291</v>
+      </c>
+      <c r="F142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>292</v>
+      </c>
+      <c r="B143" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>293</v>
+      </c>
+      <c r="F143" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>295</v>
+      </c>
+      <c r="F144" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>297</v>
+      </c>
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>299</v>
+      </c>
+      <c r="F146" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="s">
+        <v>10</v>
+      </c>
+      <c r="I146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>301</v>
+      </c>
+      <c r="F147" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>10</v>
+      </c>
+      <c r="I147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>303</v>
+      </c>
+      <c r="F148" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>10</v>
+      </c>
+      <c r="I148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>305</v>
+      </c>
+      <c r="F149" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="s">
+        <v>10</v>
+      </c>
+      <c r="I149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>307</v>
+      </c>
+      <c r="F150" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="s">
+        <v>10</v>
+      </c>
+      <c r="I150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s">
+        <v>309</v>
+      </c>
+      <c r="F151" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="s">
+        <v>10</v>
+      </c>
+      <c r="I151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" t="s">
+        <v>28</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>311</v>
+      </c>
+      <c r="F152" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" t="s">
+        <v>10</v>
+      </c>
+      <c r="I152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" t="s">
+        <v>313</v>
+      </c>
+      <c r="F153" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" t="s">
+        <v>10</v>
+      </c>
+      <c r="I153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s">
+        <v>315</v>
+      </c>
+      <c r="F154" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" t="s">
+        <v>10</v>
+      </c>
+      <c r="I154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>317</v>
+      </c>
+      <c r="F155" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" t="s">
+        <v>10</v>
+      </c>
+      <c r="I155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>319</v>
+      </c>
+      <c r="F156" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>10</v>
+      </c>
+      <c r="I156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s">
+        <v>321</v>
+      </c>
+      <c r="F157" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>322</v>
+      </c>
+      <c r="B158" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>323</v>
+      </c>
+      <c r="F158" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="s">
+        <v>10</v>
+      </c>
+      <c r="I158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s">
+        <v>325</v>
+      </c>
+      <c r="F159" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="s">
+        <v>10</v>
+      </c>
+      <c r="I159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" t="s">
+        <v>327</v>
+      </c>
+      <c r="F160" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>328</v>
+      </c>
+      <c r="B161" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" t="s">
+        <v>329</v>
+      </c>
+      <c r="F161" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="s">
+        <v>10</v>
+      </c>
+      <c r="I161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" t="s">
+        <v>331</v>
+      </c>
+      <c r="F162" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="s">
+        <v>10</v>
+      </c>
+      <c r="I162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" t="s">
+        <v>333</v>
+      </c>
+      <c r="F163" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="s">
+        <v>10</v>
+      </c>
+      <c r="I163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>334</v>
+      </c>
+      <c r="B164" t="s">
+        <v>28</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>335</v>
+      </c>
+      <c r="F164" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" t="s">
+        <v>10</v>
+      </c>
+      <c r="I164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>336</v>
+      </c>
+      <c r="B165" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>337</v>
+      </c>
+      <c r="F165" t="s">
+        <v>18</v>
+      </c>
+      <c r="G165" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" t="s">
+        <v>10</v>
+      </c>
+      <c r="I165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" t="s">
+        <v>339</v>
+      </c>
+      <c r="F166" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" t="s">
+        <v>341</v>
+      </c>
+      <c r="F167" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" t="s">
+        <v>10</v>
+      </c>
+      <c r="I167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>342</v>
+      </c>
+      <c r="B168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" t="s">
+        <v>343</v>
+      </c>
+      <c r="F168" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" t="s">
+        <v>10</v>
+      </c>
+      <c r="I168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" t="s">
+        <v>345</v>
+      </c>
+      <c r="F169" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="s">
+        <v>10</v>
+      </c>
+      <c r="I169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" t="s">
+        <v>347</v>
+      </c>
+      <c r="F170" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="s">
+        <v>10</v>
+      </c>
+      <c r="I170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171" t="s">
+        <v>28</v>
+      </c>
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" t="s">
+        <v>349</v>
+      </c>
+      <c r="F171" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="s">
+        <v>10</v>
+      </c>
+      <c r="I171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>350</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" t="s">
+        <v>351</v>
+      </c>
+      <c r="F172" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="s">
+        <v>10</v>
+      </c>
+      <c r="I172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>352</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" t="s">
+        <v>353</v>
+      </c>
+      <c r="F173" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="s">
+        <v>10</v>
+      </c>
+      <c r="I173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" t="s">
+        <v>355</v>
+      </c>
+      <c r="F174" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="s">
+        <v>10</v>
+      </c>
+      <c r="I174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" t="s">
+        <v>357</v>
+      </c>
+      <c r="F175" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="s">
+        <v>10</v>
+      </c>
+      <c r="I175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>358</v>
+      </c>
+      <c r="B176" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" t="s">
+        <v>359</v>
+      </c>
+      <c r="F176" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="s">
+        <v>10</v>
+      </c>
+      <c r="I176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" t="s">
+        <v>361</v>
+      </c>
+      <c r="F177" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="s">
+        <v>10</v>
+      </c>
+      <c r="I177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" t="s">
+        <v>363</v>
+      </c>
+      <c r="F178" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="s">
+        <v>10</v>
+      </c>
+      <c r="I178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>364</v>
+      </c>
+      <c r="B179" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" t="s">
+        <v>365</v>
+      </c>
+      <c r="F179" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="s">
+        <v>10</v>
+      </c>
+      <c r="I179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>366</v>
+      </c>
+      <c r="B180" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" t="s">
+        <v>367</v>
+      </c>
+      <c r="F180" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="s">
+        <v>10</v>
+      </c>
+      <c r="I180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>368</v>
+      </c>
+      <c r="B181" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" t="s">
+        <v>369</v>
+      </c>
+      <c r="F181" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="s">
+        <v>10</v>
+      </c>
+      <c r="I181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>370</v>
+      </c>
+      <c r="B182" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" t="s">
+        <v>371</v>
+      </c>
+      <c r="F182" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="s">
+        <v>10</v>
+      </c>
+      <c r="I182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>372</v>
+      </c>
+      <c r="B183" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" t="s">
+        <v>373</v>
+      </c>
+      <c r="F183" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="s">
+        <v>10</v>
+      </c>
+      <c r="I183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>374</v>
+      </c>
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" t="s">
+        <v>375</v>
+      </c>
+      <c r="F184" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="s">
+        <v>10</v>
+      </c>
+      <c r="I184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>376</v>
+      </c>
+      <c r="B185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" t="s">
+        <v>377</v>
+      </c>
+      <c r="F185" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="s">
+        <v>10</v>
+      </c>
+      <c r="I185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>378</v>
+      </c>
+      <c r="B186" t="s">
+        <v>28</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" t="s">
+        <v>379</v>
+      </c>
+      <c r="F186" t="s">
+        <v>18</v>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="s">
+        <v>10</v>
+      </c>
+      <c r="I186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>380</v>
+      </c>
+      <c r="B187" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" t="s">
+        <v>381</v>
+      </c>
+      <c r="F187" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="s">
+        <v>10</v>
+      </c>
+      <c r="I187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>382</v>
+      </c>
+      <c r="B188" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" t="s">
+        <v>383</v>
+      </c>
+      <c r="F188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="s">
+        <v>10</v>
+      </c>
+      <c r="I188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>384</v>
+      </c>
+      <c r="B189" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" t="s">
+        <v>385</v>
+      </c>
+      <c r="F189" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="s">
+        <v>10</v>
+      </c>
+      <c r="I189" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>386</v>
+      </c>
+      <c r="B190" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" t="s">
+        <v>387</v>
+      </c>
+      <c r="F190" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="s">
+        <v>10</v>
+      </c>
+      <c r="I190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>388</v>
+      </c>
+      <c r="B191" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" t="s">
+        <v>389</v>
+      </c>
+      <c r="F191" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" t="s">
+        <v>10</v>
+      </c>
+      <c r="I191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>390</v>
+      </c>
+      <c r="B192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" t="s">
+        <v>391</v>
+      </c>
+      <c r="F192" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192" t="s">
+        <v>10</v>
+      </c>
+      <c r="I192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>392</v>
+      </c>
+      <c r="B193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" t="s">
+        <v>393</v>
+      </c>
+      <c r="F193" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="s">
+        <v>10</v>
+      </c>
+      <c r="I193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>394</v>
+      </c>
+      <c r="B194" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" t="s">
+        <v>395</v>
+      </c>
+      <c r="F194" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="s">
+        <v>10</v>
+      </c>
+      <c r="I194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>396</v>
+      </c>
+      <c r="B195" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" t="s">
+        <v>397</v>
+      </c>
+      <c r="F195" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="s">
+        <v>10</v>
+      </c>
+      <c r="I195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>398</v>
+      </c>
+      <c r="B196" t="s">
+        <v>28</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" t="s">
+        <v>399</v>
+      </c>
+      <c r="F196" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" t="s">
+        <v>10</v>
+      </c>
+      <c r="I196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>400</v>
+      </c>
+      <c r="B197" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" t="s">
+        <v>401</v>
+      </c>
+      <c r="F197" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="s">
+        <v>10</v>
+      </c>
+      <c r="I197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>402</v>
+      </c>
+      <c r="B198" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" t="s">
+        <v>403</v>
+      </c>
+      <c r="F198" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="s">
+        <v>10</v>
+      </c>
+      <c r="I198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>404</v>
+      </c>
+      <c r="B199" t="s">
+        <v>28</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" t="s">
+        <v>405</v>
+      </c>
+      <c r="F199" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="s">
+        <v>10</v>
+      </c>
+      <c r="I199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>406</v>
+      </c>
+      <c r="B200" t="s">
+        <v>28</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" t="s">
+        <v>407</v>
+      </c>
+      <c r="F200" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="s">
+        <v>10</v>
+      </c>
+      <c r="I200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>408</v>
+      </c>
+      <c r="B201" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" t="s">
+        <v>409</v>
+      </c>
+      <c r="F201" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="s">
+        <v>10</v>
+      </c>
+      <c r="I201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>410</v>
+      </c>
+      <c r="B202" t="s">
+        <v>28</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>411</v>
+      </c>
+      <c r="F202" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="s">
+        <v>10</v>
+      </c>
+      <c r="I202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" t="s">
+        <v>413</v>
+      </c>
+      <c r="F203" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="s">
+        <v>10</v>
+      </c>
+      <c r="I203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>414</v>
+      </c>
+      <c r="B204" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" t="s">
+        <v>415</v>
+      </c>
+      <c r="F204" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="s">
+        <v>10</v>
+      </c>
+      <c r="I204" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>416</v>
+      </c>
+      <c r="B205" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" t="s">
+        <v>417</v>
+      </c>
+      <c r="F205" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="s">
+        <v>10</v>
+      </c>
+      <c r="I205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>418</v>
+      </c>
+      <c r="B206" t="s">
+        <v>28</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" t="s">
+        <v>419</v>
+      </c>
+      <c r="F206" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="s">
+        <v>10</v>
+      </c>
+      <c r="I206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" t="s">
+        <v>421</v>
+      </c>
+      <c r="F207" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="s">
+        <v>10</v>
+      </c>
+      <c r="I207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>422</v>
+      </c>
+      <c r="B208" t="s">
+        <v>28</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" t="s">
+        <v>423</v>
+      </c>
+      <c r="F208" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="s">
+        <v>10</v>
+      </c>
+      <c r="I208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>424</v>
+      </c>
+      <c r="B209" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" t="s">
+        <v>425</v>
+      </c>
+      <c r="F209" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" t="s">
+        <v>10</v>
+      </c>
+      <c r="I209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>426</v>
+      </c>
+      <c r="B210" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>427</v>
+      </c>
+      <c r="F210" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="s">
+        <v>10</v>
+      </c>
+      <c r="I210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>428</v>
+      </c>
+      <c r="B211" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" t="s">
+        <v>429</v>
+      </c>
+      <c r="F211" t="s">
+        <v>18</v>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="s">
+        <v>10</v>
+      </c>
+      <c r="I211" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>430</v>
+      </c>
+      <c r="B212" t="s">
+        <v>28</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" t="s">
+        <v>431</v>
+      </c>
+      <c r="F212" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="s">
+        <v>10</v>
+      </c>
+      <c r="I212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>432</v>
+      </c>
+      <c r="B213" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" t="s">
+        <v>433</v>
+      </c>
+      <c r="F213" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="s">
+        <v>10</v>
+      </c>
+      <c r="I213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>434</v>
+      </c>
+      <c r="B214" t="s">
+        <v>28</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" t="s">
+        <v>435</v>
+      </c>
+      <c r="F214" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="s">
+        <v>10</v>
+      </c>
+      <c r="I214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>436</v>
+      </c>
+      <c r="B215" t="s">
+        <v>28</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" t="s">
+        <v>437</v>
+      </c>
+      <c r="F215" t="s">
+        <v>18</v>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="s">
+        <v>10</v>
+      </c>
+      <c r="I215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>438</v>
+      </c>
+      <c r="B216" t="s">
+        <v>28</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>439</v>
+      </c>
+      <c r="F216" t="s">
+        <v>18</v>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="s">
+        <v>10</v>
+      </c>
+      <c r="I216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>440</v>
+      </c>
+      <c r="B217" t="s">
+        <v>28</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" t="s">
+        <v>441</v>
+      </c>
+      <c r="F217" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="s">
+        <v>10</v>
+      </c>
+      <c r="I217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>442</v>
+      </c>
+      <c r="B218" t="s">
+        <v>28</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>443</v>
+      </c>
+      <c r="F218" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="s">
+        <v>10</v>
+      </c>
+      <c r="I218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>444</v>
+      </c>
+      <c r="B219" t="s">
+        <v>28</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s">
+        <v>445</v>
+      </c>
+      <c r="F219" t="s">
+        <v>18</v>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="s">
+        <v>10</v>
+      </c>
+      <c r="I219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>446</v>
+      </c>
+      <c r="B220" t="s">
+        <v>28</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" t="s">
+        <v>447</v>
+      </c>
+      <c r="F220" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="s">
+        <v>10</v>
+      </c>
+      <c r="I220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>448</v>
+      </c>
+      <c r="B221" t="s">
+        <v>28</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" t="s">
+        <v>449</v>
+      </c>
+      <c r="F221" t="s">
+        <v>18</v>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="s">
+        <v>10</v>
+      </c>
+      <c r="I221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>450</v>
+      </c>
+      <c r="B222" t="s">
+        <v>28</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" t="s">
+        <v>451</v>
+      </c>
+      <c r="F222" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="s">
+        <v>10</v>
+      </c>
+      <c r="I222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>452</v>
+      </c>
+      <c r="B223" t="s">
+        <v>28</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" t="s">
+        <v>453</v>
+      </c>
+      <c r="F223" t="s">
+        <v>18</v>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="s">
+        <v>10</v>
+      </c>
+      <c r="I223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>454</v>
+      </c>
+      <c r="B224" t="s">
+        <v>28</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" t="s">
+        <v>455</v>
+      </c>
+      <c r="F224" t="s">
+        <v>18</v>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="s">
+        <v>10</v>
+      </c>
+      <c r="I224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>456</v>
+      </c>
+      <c r="B225" t="s">
+        <v>28</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" t="s">
+        <v>457</v>
+      </c>
+      <c r="F225" t="s">
+        <v>18</v>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="s">
+        <v>10</v>
+      </c>
+      <c r="I225" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>458</v>
+      </c>
+      <c r="B226" t="s">
+        <v>28</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" t="s">
+        <v>459</v>
+      </c>
+      <c r="F226" t="s">
+        <v>18</v>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="s">
+        <v>10</v>
+      </c>
+      <c r="I226" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>460</v>
+      </c>
+      <c r="B227" t="s">
+        <v>28</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227" t="s">
+        <v>461</v>
+      </c>
+      <c r="F227" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="s">
+        <v>10</v>
+      </c>
+      <c r="I227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>462</v>
+      </c>
+      <c r="B228" t="s">
+        <v>28</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>9</v>
+      </c>
+      <c r="E228" t="s">
+        <v>463</v>
+      </c>
+      <c r="F228" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="s">
+        <v>10</v>
+      </c>
+      <c r="I228" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>464</v>
+      </c>
+      <c r="B229" t="s">
+        <v>28</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>9</v>
+      </c>
+      <c r="E229" t="s">
+        <v>465</v>
+      </c>
+      <c r="F229" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="s">
+        <v>10</v>
+      </c>
+      <c r="I229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>466</v>
+      </c>
+      <c r="B230" t="s">
+        <v>28</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" t="s">
+        <v>467</v>
+      </c>
+      <c r="F230" t="s">
+        <v>18</v>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="s">
+        <v>10</v>
+      </c>
+      <c r="I230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>468</v>
+      </c>
+      <c r="B231" t="s">
+        <v>28</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>9</v>
+      </c>
+      <c r="E231" t="s">
+        <v>469</v>
+      </c>
+      <c r="F231" t="s">
+        <v>18</v>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="s">
+        <v>10</v>
+      </c>
+      <c r="I231" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>470</v>
+      </c>
+      <c r="B232" t="s">
+        <v>28</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" t="s">
+        <v>471</v>
+      </c>
+      <c r="F232" t="s">
+        <v>18</v>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="s">
+        <v>10</v>
+      </c>
+      <c r="I232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>472</v>
+      </c>
+      <c r="B233" t="s">
+        <v>28</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233" t="s">
+        <v>473</v>
+      </c>
+      <c r="F233" t="s">
+        <v>18</v>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="s">
+        <v>10</v>
+      </c>
+      <c r="I233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>474</v>
+      </c>
+      <c r="B234" t="s">
+        <v>28</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" t="s">
+        <v>475</v>
+      </c>
+      <c r="F234" t="s">
+        <v>18</v>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="s">
+        <v>10</v>
+      </c>
+      <c r="I234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>476</v>
+      </c>
+      <c r="B235" t="s">
+        <v>28</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" t="s">
+        <v>477</v>
+      </c>
+      <c r="F235" t="s">
+        <v>18</v>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="s">
+        <v>10</v>
+      </c>
+      <c r="I235" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>478</v>
+      </c>
+      <c r="B236" t="s">
+        <v>28</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>9</v>
+      </c>
+      <c r="E236" t="s">
+        <v>479</v>
+      </c>
+      <c r="F236" t="s">
+        <v>18</v>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="s">
+        <v>10</v>
+      </c>
+      <c r="I236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>480</v>
+      </c>
+      <c r="B237" t="s">
+        <v>28</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>9</v>
+      </c>
+      <c r="E237" t="s">
+        <v>481</v>
+      </c>
+      <c r="F237" t="s">
+        <v>18</v>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="s">
+        <v>10</v>
+      </c>
+      <c r="I237" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53687CE5-62DB-4E22-B0EE-0ED36471B82D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A226CF18-18C1-424D-839F-A27E0F25E83D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="481">
   <si>
     <t>id</t>
   </si>
@@ -102,12 +102,6 @@
     <t>{
 	"code": "ET",
 	"value": "ETRANGER"
-}</t>
-  </si>
-  <si>
-    <t>{
-	"code": "MI",
-	"value": "MIGRANT"
 }</t>
   </si>
   <si>
@@ -1917,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2009,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -2039,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -2069,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -2177,7 +2171,7 @@
     </row>
     <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10095</v>
+        <v>10096</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -2205,27 +2199,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10096</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
+      <c r="E10" t="s">
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="b">
-        <f>TRUE()</f>
+      <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="s">
@@ -2237,19 +2230,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -2266,19 +2259,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -2295,19 +2288,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -2324,19 +2317,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -2353,19 +2346,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -2382,19 +2375,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -2411,19 +2404,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2440,19 +2433,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2469,19 +2462,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -2498,19 +2491,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -2527,19 +2520,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -2556,19 +2549,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -2585,19 +2578,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -2614,19 +2607,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -2643,19 +2636,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -2672,19 +2665,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -2701,19 +2694,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -2730,19 +2723,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -2759,19 +2752,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -2788,19 +2781,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -2817,19 +2810,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -2846,19 +2839,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -2875,19 +2868,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -2904,19 +2897,19 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -2933,19 +2926,19 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -2962,19 +2955,19 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -2991,19 +2984,19 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
@@ -3020,19 +3013,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -3049,19 +3042,19 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -3078,19 +3071,19 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -3107,19 +3100,19 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -3136,19 +3129,19 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -3165,19 +3158,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
@@ -3194,19 +3187,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -3223,19 +3216,19 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
@@ -3252,19 +3245,19 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
@@ -3281,19 +3274,19 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
@@ -3310,19 +3303,19 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
@@ -3339,19 +3332,19 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
@@ -3368,19 +3361,19 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -3397,19 +3390,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -3426,19 +3419,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -3455,19 +3448,19 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F53" t="s">
         <v>18</v>
@@ -3484,19 +3477,19 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
@@ -3513,19 +3506,19 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
@@ -3542,19 +3535,19 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
@@ -3571,19 +3564,19 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
@@ -3600,19 +3593,19 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F58" t="s">
         <v>18</v>
@@ -3629,19 +3622,19 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
@@ -3658,19 +3651,19 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F60" t="s">
         <v>18</v>
@@ -3687,19 +3680,19 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
@@ -3716,19 +3709,19 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -3745,19 +3738,19 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F63" t="s">
         <v>18</v>
@@ -3774,19 +3767,19 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
@@ -3803,19 +3796,19 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F65" t="s">
         <v>18</v>
@@ -3832,19 +3825,19 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -3861,19 +3854,19 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -3890,19 +3883,19 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -3919,19 +3912,19 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -3948,19 +3941,19 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -3977,19 +3970,19 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -4006,19 +3999,19 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -4035,19 +4028,19 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -4064,19 +4057,19 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F74" t="s">
         <v>18</v>
@@ -4093,19 +4086,19 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F75" t="s">
         <v>18</v>
@@ -4122,19 +4115,19 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -4151,19 +4144,19 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F77" t="s">
         <v>18</v>
@@ -4180,19 +4173,19 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
@@ -4209,19 +4202,19 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F79" t="s">
         <v>18</v>
@@ -4238,19 +4231,19 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F80" t="s">
         <v>18</v>
@@ -4267,19 +4260,19 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F81" t="s">
         <v>18</v>
@@ -4296,19 +4289,19 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F82" t="s">
         <v>18</v>
@@ -4325,19 +4318,19 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F83" t="s">
         <v>18</v>
@@ -4354,19 +4347,19 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F84" t="s">
         <v>18</v>
@@ -4383,19 +4376,19 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F85" t="s">
         <v>18</v>
@@ -4412,19 +4405,19 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
@@ -4441,19 +4434,19 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F87" t="s">
         <v>18</v>
@@ -4470,19 +4463,19 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
@@ -4499,19 +4492,19 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F89" t="s">
         <v>18</v>
@@ -4528,19 +4521,19 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F90" t="s">
         <v>18</v>
@@ -4557,19 +4550,19 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F91" t="s">
         <v>18</v>
@@ -4586,19 +4579,19 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F92" t="s">
         <v>18</v>
@@ -4615,19 +4608,19 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
@@ -4644,19 +4637,19 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
@@ -4673,19 +4666,19 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F95" t="s">
         <v>18</v>
@@ -4702,19 +4695,19 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -4731,19 +4724,19 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F97" t="s">
         <v>18</v>
@@ -4760,19 +4753,19 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
@@ -4789,19 +4782,19 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
@@ -4818,19 +4811,19 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -4847,19 +4840,19 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
@@ -4876,19 +4869,19 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
@@ -4905,19 +4898,19 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F103" t="s">
         <v>18</v>
@@ -4934,19 +4927,19 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
@@ -4963,19 +4956,19 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
@@ -4992,19 +4985,19 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
@@ -5021,19 +5014,19 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F107" t="s">
         <v>18</v>
@@ -5050,19 +5043,19 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F108" t="s">
         <v>18</v>
@@ -5079,19 +5072,19 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
@@ -5108,19 +5101,19 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F110" t="s">
         <v>18</v>
@@ -5137,19 +5130,19 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F111" t="s">
         <v>18</v>
@@ -5166,19 +5159,19 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
@@ -5195,19 +5188,19 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F113" t="s">
         <v>18</v>
@@ -5224,19 +5217,19 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F114" t="s">
         <v>18</v>
@@ -5253,19 +5246,19 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F115" t="s">
         <v>18</v>
@@ -5282,19 +5275,19 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
       </c>
       <c r="E116" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F116" t="s">
         <v>18</v>
@@ -5311,19 +5304,19 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F117" t="s">
         <v>18</v>
@@ -5340,19 +5333,19 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
@@ -5369,19 +5362,19 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F119" t="s">
         <v>18</v>
@@ -5398,19 +5391,19 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
       </c>
       <c r="E120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F120" t="s">
         <v>18</v>
@@ -5427,19 +5420,19 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F121" t="s">
         <v>18</v>
@@ -5456,19 +5449,19 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F122" t="s">
         <v>18</v>
@@ -5485,19 +5478,19 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
       </c>
       <c r="E123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F123" t="s">
         <v>18</v>
@@ -5514,19 +5507,19 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F124" t="s">
         <v>18</v>
@@ -5543,19 +5536,19 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F125" t="s">
         <v>18</v>
@@ -5572,19 +5565,19 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F126" t="s">
         <v>18</v>
@@ -5601,19 +5594,19 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
@@ -5630,19 +5623,19 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F128" t="s">
         <v>18</v>
@@ -5659,19 +5652,19 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
@@ -5688,19 +5681,19 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F130" t="s">
         <v>18</v>
@@ -5717,19 +5710,19 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -5746,19 +5739,19 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F132" t="s">
         <v>18</v>
@@ -5775,19 +5768,19 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
@@ -5804,19 +5797,19 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -5833,19 +5826,19 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
@@ -5862,19 +5855,19 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
@@ -5891,19 +5884,19 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F137" t="s">
         <v>18</v>
@@ -5920,19 +5913,19 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
@@ -5949,19 +5942,19 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
@@ -5978,19 +5971,19 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
@@ -6007,19 +6000,19 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F141" t="s">
         <v>18</v>
@@ -6036,19 +6029,19 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
@@ -6065,19 +6058,19 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" t="s">
         <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F143" t="s">
         <v>18</v>
@@ -6094,19 +6087,19 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" t="s">
         <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F144" t="s">
         <v>18</v>
@@ -6123,19 +6116,19 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D145" t="s">
         <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F145" t="s">
         <v>18</v>
@@ -6152,19 +6145,19 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146" t="s">
         <v>9</v>
       </c>
       <c r="E146" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F146" t="s">
         <v>18</v>
@@ -6181,19 +6174,19 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F147" t="s">
         <v>18</v>
@@ -6210,19 +6203,19 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" t="s">
         <v>9</v>
       </c>
       <c r="E148" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F148" t="s">
         <v>18</v>
@@ -6239,19 +6232,19 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" t="s">
         <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F149" t="s">
         <v>18</v>
@@ -6268,19 +6261,19 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F150" t="s">
         <v>18</v>
@@ -6297,19 +6290,19 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F151" t="s">
         <v>18</v>
@@ -6326,19 +6319,19 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D152" t="s">
         <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F152" t="s">
         <v>18</v>
@@ -6355,19 +6348,19 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D153" t="s">
         <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F153" t="s">
         <v>18</v>
@@ -6384,19 +6377,19 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154" t="s">
         <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F154" t="s">
         <v>18</v>
@@ -6413,19 +6406,19 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155" t="s">
         <v>9</v>
       </c>
       <c r="E155" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F155" t="s">
         <v>18</v>
@@ -6442,19 +6435,19 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" t="s">
         <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F156" t="s">
         <v>18</v>
@@ -6471,19 +6464,19 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
       </c>
       <c r="E157" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F157" t="s">
         <v>18</v>
@@ -6500,19 +6493,19 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D158" t="s">
         <v>9</v>
       </c>
       <c r="E158" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F158" t="s">
         <v>18</v>
@@ -6529,19 +6522,19 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" t="s">
         <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F159" t="s">
         <v>18</v>
@@ -6558,19 +6551,19 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" t="s">
         <v>9</v>
       </c>
       <c r="E160" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F160" t="s">
         <v>18</v>
@@ -6587,19 +6580,19 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" t="s">
         <v>9</v>
       </c>
       <c r="E161" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F161" t="s">
         <v>18</v>
@@ -6616,19 +6609,19 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" t="s">
         <v>9</v>
       </c>
       <c r="E162" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F162" t="s">
         <v>18</v>
@@ -6645,19 +6638,19 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" t="s">
         <v>9</v>
       </c>
       <c r="E163" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F163" t="s">
         <v>18</v>
@@ -6674,19 +6667,19 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" t="s">
         <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F164" t="s">
         <v>18</v>
@@ -6703,19 +6696,19 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" t="s">
         <v>9</v>
       </c>
       <c r="E165" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F165" t="s">
         <v>18</v>
@@ -6732,19 +6725,19 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F166" t="s">
         <v>18</v>
@@ -6761,19 +6754,19 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" t="s">
         <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F167" t="s">
         <v>18</v>
@@ -6790,19 +6783,19 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" t="s">
         <v>9</v>
       </c>
       <c r="E168" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F168" t="s">
         <v>18</v>
@@ -6819,19 +6812,19 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" t="s">
         <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F169" t="s">
         <v>18</v>
@@ -6848,19 +6841,19 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170" t="s">
         <v>9</v>
       </c>
       <c r="E170" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F170" t="s">
         <v>18</v>
@@ -6877,19 +6870,19 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D171" t="s">
         <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F171" t="s">
         <v>18</v>
@@ -6906,19 +6899,19 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D172" t="s">
         <v>9</v>
       </c>
       <c r="E172" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F172" t="s">
         <v>18</v>
@@ -6935,19 +6928,19 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" t="s">
         <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F173" t="s">
         <v>18</v>
@@ -6964,19 +6957,19 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D174" t="s">
         <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F174" t="s">
         <v>18</v>
@@ -6993,19 +6986,19 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D175" t="s">
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F175" t="s">
         <v>18</v>
@@ -7022,19 +7015,19 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D176" t="s">
         <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F176" t="s">
         <v>18</v>
@@ -7051,19 +7044,19 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177" t="s">
         <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F177" t="s">
         <v>18</v>
@@ -7080,19 +7073,19 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" t="s">
         <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F178" t="s">
         <v>18</v>
@@ -7109,19 +7102,19 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F179" t="s">
         <v>18</v>
@@ -7138,19 +7131,19 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D180" t="s">
         <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F180" t="s">
         <v>18</v>
@@ -7167,19 +7160,19 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D181" t="s">
         <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F181" t="s">
         <v>18</v>
@@ -7196,19 +7189,19 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D182" t="s">
         <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F182" t="s">
         <v>18</v>
@@ -7225,19 +7218,19 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D183" t="s">
         <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F183" t="s">
         <v>18</v>
@@ -7254,19 +7247,19 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F184" t="s">
         <v>18</v>
@@ -7283,19 +7276,19 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D185" t="s">
         <v>9</v>
       </c>
       <c r="E185" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F185" t="s">
         <v>18</v>
@@ -7312,19 +7305,19 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D186" t="s">
         <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F186" t="s">
         <v>18</v>
@@ -7341,19 +7334,19 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D187" t="s">
         <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F187" t="s">
         <v>18</v>
@@ -7370,19 +7363,19 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D188" t="s">
         <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F188" t="s">
         <v>18</v>
@@ -7399,19 +7392,19 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F189" t="s">
         <v>18</v>
@@ -7428,19 +7421,19 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D190" t="s">
         <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F190" t="s">
         <v>18</v>
@@ -7457,19 +7450,19 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D191" t="s">
         <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F191" t="s">
         <v>18</v>
@@ -7486,19 +7479,19 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D192" t="s">
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F192" t="s">
         <v>18</v>
@@ -7515,19 +7508,19 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D193" t="s">
         <v>9</v>
       </c>
       <c r="E193" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F193" t="s">
         <v>18</v>
@@ -7544,19 +7537,19 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D194" t="s">
         <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F194" t="s">
         <v>18</v>
@@ -7573,19 +7566,19 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" t="s">
         <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F195" t="s">
         <v>18</v>
@@ -7602,19 +7595,19 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D196" t="s">
         <v>9</v>
       </c>
       <c r="E196" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F196" t="s">
         <v>18</v>
@@ -7631,19 +7624,19 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D197" t="s">
         <v>9</v>
       </c>
       <c r="E197" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F197" t="s">
         <v>18</v>
@@ -7660,19 +7653,19 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D198" t="s">
         <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F198" t="s">
         <v>18</v>
@@ -7689,19 +7682,19 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D199" t="s">
         <v>9</v>
       </c>
       <c r="E199" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F199" t="s">
         <v>18</v>
@@ -7718,19 +7711,19 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F200" t="s">
         <v>18</v>
@@ -7747,19 +7740,19 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D201" t="s">
         <v>9</v>
       </c>
       <c r="E201" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F201" t="s">
         <v>18</v>
@@ -7776,19 +7769,19 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D202" t="s">
         <v>9</v>
       </c>
       <c r="E202" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F202" t="s">
         <v>18</v>
@@ -7805,19 +7798,19 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D203" t="s">
         <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F203" t="s">
         <v>18</v>
@@ -7834,19 +7827,19 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204" t="s">
         <v>9</v>
       </c>
       <c r="E204" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F204" t="s">
         <v>18</v>
@@ -7863,19 +7856,19 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D205" t="s">
         <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F205" t="s">
         <v>18</v>
@@ -7892,19 +7885,19 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D206" t="s">
         <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F206" t="s">
         <v>18</v>
@@ -7921,19 +7914,19 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D207" t="s">
         <v>9</v>
       </c>
       <c r="E207" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F207" t="s">
         <v>18</v>
@@ -7950,19 +7943,19 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D208" t="s">
         <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F208" t="s">
         <v>18</v>
@@ -7979,19 +7972,19 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D209" t="s">
         <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F209" t="s">
         <v>18</v>
@@ -8008,19 +8001,19 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D210" t="s">
         <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F210" t="s">
         <v>18</v>
@@ -8037,19 +8030,19 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D211" t="s">
         <v>9</v>
       </c>
       <c r="E211" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F211" t="s">
         <v>18</v>
@@ -8066,19 +8059,19 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D212" t="s">
         <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F212" t="s">
         <v>18</v>
@@ -8095,19 +8088,19 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D213" t="s">
         <v>9</v>
       </c>
       <c r="E213" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F213" t="s">
         <v>18</v>
@@ -8124,19 +8117,19 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D214" t="s">
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F214" t="s">
         <v>18</v>
@@ -8153,19 +8146,19 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D215" t="s">
         <v>9</v>
       </c>
       <c r="E215" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F215" t="s">
         <v>18</v>
@@ -8182,19 +8175,19 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D216" t="s">
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F216" t="s">
         <v>18</v>
@@ -8211,19 +8204,19 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D217" t="s">
         <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F217" t="s">
         <v>18</v>
@@ -8240,19 +8233,19 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D218" t="s">
         <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F218" t="s">
         <v>18</v>
@@ -8269,19 +8262,19 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D219" t="s">
         <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F219" t="s">
         <v>18</v>
@@ -8298,19 +8291,19 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D220" t="s">
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F220" t="s">
         <v>18</v>
@@ -8327,19 +8320,19 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D221" t="s">
         <v>9</v>
       </c>
       <c r="E221" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F221" t="s">
         <v>18</v>
@@ -8356,19 +8349,19 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D222" t="s">
         <v>9</v>
       </c>
       <c r="E222" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F222" t="s">
         <v>18</v>
@@ -8385,19 +8378,19 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D223" t="s">
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F223" t="s">
         <v>18</v>
@@ -8414,19 +8407,19 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D224" t="s">
         <v>9</v>
       </c>
       <c r="E224" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F224" t="s">
         <v>18</v>
@@ -8443,19 +8436,19 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D225" t="s">
         <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F225" t="s">
         <v>18</v>
@@ -8472,19 +8465,19 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D226" t="s">
         <v>9</v>
       </c>
       <c r="E226" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F226" t="s">
         <v>18</v>
@@ -8501,19 +8494,19 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D227" t="s">
         <v>9</v>
       </c>
       <c r="E227" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F227" t="s">
         <v>18</v>
@@ -8530,19 +8523,19 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B228" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C228" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D228" t="s">
         <v>9</v>
       </c>
       <c r="E228" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F228" t="s">
         <v>18</v>
@@ -8559,19 +8552,19 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D229" t="s">
         <v>9</v>
       </c>
       <c r="E229" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F229" t="s">
         <v>18</v>
@@ -8588,19 +8581,19 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B230" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C230" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D230" t="s">
         <v>9</v>
       </c>
       <c r="E230" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F230" t="s">
         <v>18</v>
@@ -8617,19 +8610,19 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D231" t="s">
         <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F231" t="s">
         <v>18</v>
@@ -8646,19 +8639,19 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D232" t="s">
         <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F232" t="s">
         <v>18</v>
@@ -8675,19 +8668,19 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D233" t="s">
         <v>9</v>
       </c>
       <c r="E233" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F233" t="s">
         <v>18</v>
@@ -8704,19 +8697,19 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
       </c>
       <c r="E234" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F234" t="s">
         <v>18</v>
@@ -8733,19 +8726,19 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D235" t="s">
         <v>9</v>
       </c>
       <c r="E235" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F235" t="s">
         <v>18</v>
@@ -8762,19 +8755,19 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D236" t="s">
         <v>9</v>
       </c>
       <c r="E236" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F236" t="s">
         <v>18</v>
@@ -8786,35 +8779,6 @@
         <v>10</v>
       </c>
       <c r="I236" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>480</v>
-      </c>
-      <c r="B237" t="s">
-        <v>28</v>
-      </c>
-      <c r="C237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D237" t="s">
-        <v>9</v>
-      </c>
-      <c r="E237" t="s">
-        <v>481</v>
-      </c>
-      <c r="F237" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="s">
-        <v>10</v>
-      </c>
-      <c r="I237" t="s">
         <v>11</v>
       </c>
     </row>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView windowWidth="18600" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="data-1729495672908" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data-1729495672908'!$A$1:$M$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data-1729495672908'!$A$1:$M$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -537,6 +537,18 @@
 		"code": "NFR",
 		"value": "No extranjero"
 	}</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>kkkk</t>
+  </si>
+  <si>
+    <t>{"value":"spa","code":"spa"}</t>
+  </si>
+  <si>
+    <t>user Type</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1160,6 +1172,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1695,10 +1710,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
@@ -1753,10 +1768,9 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="101.5" spans="1:9">
+    <row r="3" ht="72.5" spans="1:9">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -1778,10 +1792,9 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="H3"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" ht="101.5" spans="1:9">
+    <row r="4" ht="72.5" spans="1:9">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -1803,10 +1816,9 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" ht="101.5" spans="1:9">
+    <row r="5" ht="72.5" spans="1:9">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -1828,10 +1840,9 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" ht="101.5" spans="1:9">
+    <row r="6" ht="72.5" spans="1:9">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -1853,10 +1864,9 @@
       <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="H6"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" ht="101.5" spans="1:9">
+    <row r="7" ht="72.5" spans="1:9">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -1878,10 +1888,9 @@
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="H7"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" ht="101.5" spans="1:9">
+    <row r="8" ht="72.5" spans="1:9">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -1903,10 +1912,9 @@
       <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="H8"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" ht="101.5" spans="1:9">
+    <row r="9" ht="72.5" spans="1:9">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -1928,10 +1936,9 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="H9"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" ht="101.5" spans="1:9">
+    <row r="10" ht="72.5" spans="1:9">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -1953,12 +1960,11 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="H10"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" ht="101.5" spans="1:9">
+    <row r="11" ht="72.5" spans="1:9">
       <c r="A11">
-        <v>10010</v>
+        <v>1001</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1978,10 +1984,9 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="H11"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" ht="101.5" spans="1:9">
+    <row r="12" ht="72.5" spans="1:9">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -2003,10 +2008,9 @@
       <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="H12"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" ht="101.5" spans="1:9">
+    <row r="13" ht="72.5" spans="1:9">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -2028,10 +2032,9 @@
       <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="H13"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" ht="116" spans="1:9">
+    <row r="14" ht="72.5" spans="1:9">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -2053,7 +2056,6 @@
       <c r="G14" t="b">
         <v>1</v>
       </c>
-      <c r="H14"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" ht="72.5" spans="1:9">
@@ -2078,7 +2080,6 @@
       <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="H15"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" ht="72.5" spans="1:9">
@@ -2103,10 +2104,9 @@
       <c r="G16" t="b">
         <v>1</v>
       </c>
-      <c r="H16"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" ht="101.5" spans="1:9">
+    <row r="17" ht="72.5" spans="1:9">
       <c r="A17">
         <v>10016</v>
       </c>
@@ -2128,10 +2128,9 @@
       <c r="G17" t="b">
         <v>1</v>
       </c>
-      <c r="H17"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" ht="116" spans="1:9">
+    <row r="18" ht="72.5" spans="1:9">
       <c r="A18">
         <v>10017</v>
       </c>
@@ -2153,10 +2152,9 @@
       <c r="G18" t="b">
         <v>1</v>
       </c>
-      <c r="H18"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" ht="101.5" spans="1:9">
+    <row r="19" ht="72.5" spans="1:9">
       <c r="A19">
         <v>10018</v>
       </c>
@@ -2178,10 +2176,9 @@
       <c r="G19" t="b">
         <v>1</v>
       </c>
-      <c r="H19"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" ht="130.5" spans="1:9">
+    <row r="20" ht="72.5" spans="1:9">
       <c r="A20">
         <v>10019</v>
       </c>
@@ -2203,10 +2200,9 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
-      <c r="H20"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="101.5" spans="1:9">
+    <row r="21" ht="72.5" spans="1:9">
       <c r="A21">
         <v>10020</v>
       </c>
@@ -2228,7 +2224,6 @@
       <c r="G21" t="b">
         <v>1</v>
       </c>
-      <c r="H21"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" ht="72.5" spans="1:9">
@@ -2253,7 +2248,6 @@
       <c r="G22" t="b">
         <v>1</v>
       </c>
-      <c r="H22"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" ht="72.5" spans="1:9">
@@ -2278,7 +2272,6 @@
       <c r="G23" t="b">
         <v>1</v>
       </c>
-      <c r="H23"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" ht="72.5" spans="1:9">
@@ -2303,7 +2296,6 @@
       <c r="G24" t="b">
         <v>1</v>
       </c>
-      <c r="H24"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" ht="72.5" spans="1:9">
@@ -2328,10 +2320,9 @@
       <c r="G25" t="b">
         <v>1</v>
       </c>
-      <c r="H25"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" ht="145" spans="1:9">
+    <row r="26" ht="72.5" spans="1:9">
       <c r="A26">
         <v>10025</v>
       </c>
@@ -2353,7 +2344,6 @@
       <c r="G26" t="b">
         <v>1</v>
       </c>
-      <c r="H26"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" ht="72.5" spans="1:9">
@@ -2378,7 +2368,6 @@
       <c r="G27" t="b">
         <v>1</v>
       </c>
-      <c r="H27"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" ht="72.5" spans="1:9">
@@ -2403,7 +2392,6 @@
       <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="H28"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" ht="72.5" spans="1:9">
@@ -2428,7 +2416,6 @@
       <c r="G29" t="b">
         <v>1</v>
       </c>
-      <c r="H29"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" ht="72.5" spans="1:9">
@@ -2453,7 +2440,6 @@
       <c r="G30" t="b">
         <v>1</v>
       </c>
-      <c r="H30"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" ht="72.5" spans="1:9">
@@ -2478,7 +2464,6 @@
       <c r="G31" t="b">
         <v>1</v>
       </c>
-      <c r="H31"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" ht="72.5" spans="1:9">
@@ -2503,7 +2488,6 @@
       <c r="G32" t="b">
         <v>1</v>
       </c>
-      <c r="H32"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
@@ -2528,7 +2512,6 @@
       <c r="G33" t="b">
         <v>1</v>
       </c>
-      <c r="H33"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:11">
@@ -2553,9 +2536,7 @@
       <c r="G34" t="b">
         <v>1</v>
       </c>
-      <c r="H34"/>
       <c r="I34" s="2"/>
-      <c r="J34"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11">
@@ -2580,9 +2561,7 @@
       <c r="G35" t="b">
         <v>1</v>
       </c>
-      <c r="H35"/>
       <c r="I35" s="2"/>
-      <c r="J35"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:9">
@@ -2607,7 +2586,6 @@
       <c r="G36" t="b">
         <v>0</v>
       </c>
-      <c r="H36"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:11">
@@ -2632,9 +2610,7 @@
       <c r="G37" t="b">
         <v>1</v>
       </c>
-      <c r="H37"/>
       <c r="I37" s="2"/>
-      <c r="J37"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:9">
@@ -2659,7 +2635,6 @@
       <c r="G38" t="b">
         <v>0</v>
       </c>
-      <c r="H38"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:11">
@@ -2684,9 +2659,7 @@
       <c r="G39" t="b">
         <v>0</v>
       </c>
-      <c r="H39"/>
       <c r="I39" s="2"/>
-      <c r="J39"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11">
@@ -2711,9 +2684,7 @@
       <c r="G40" t="b">
         <v>1</v>
       </c>
-      <c r="H40"/>
       <c r="I40" s="2"/>
-      <c r="J40"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:9">
@@ -2738,12 +2709,11 @@
       <c r="G41" t="b">
         <v>0</v>
       </c>
-      <c r="H41"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" ht="72.5" spans="1:9">
       <c r="A42">
-        <v>10001</v>
+        <v>100301</v>
       </c>
       <c r="B42" t="s">
         <v>75</v>
@@ -2763,12 +2733,11 @@
       <c r="G42" t="b">
         <v>1</v>
       </c>
-      <c r="H42"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" ht="72.5" spans="1:9">
       <c r="A43">
-        <v>10002</v>
+        <v>100602</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
@@ -2788,12 +2757,11 @@
       <c r="G43" t="b">
         <v>1</v>
       </c>
-      <c r="H43"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" ht="72.5" spans="1:9">
       <c r="A44">
-        <v>10003</v>
+        <v>100603</v>
       </c>
       <c r="B44" t="s">
         <v>75</v>
@@ -2813,12 +2781,11 @@
       <c r="G44" t="b">
         <v>1</v>
       </c>
-      <c r="H44"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" ht="72.5" spans="1:9">
       <c r="A45">
-        <v>10004</v>
+        <v>100064</v>
       </c>
       <c r="B45" t="s">
         <v>75</v>
@@ -2838,12 +2805,11 @@
       <c r="G45" t="b">
         <v>1</v>
       </c>
-      <c r="H45"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" ht="72.5" spans="1:7">
       <c r="A46">
-        <v>10005</v>
+        <v>100405</v>
       </c>
       <c r="B46" t="s">
         <v>75</v>
@@ -2866,7 +2832,7 @@
     </row>
     <row r="47" ht="72.5" spans="1:7">
       <c r="A47">
-        <v>10006</v>
+        <v>105006</v>
       </c>
       <c r="B47" t="s">
         <v>75</v>
@@ -2889,7 +2855,7 @@
     </row>
     <row r="48" ht="72.5" spans="1:7">
       <c r="A48">
-        <v>10007</v>
+        <v>100057</v>
       </c>
       <c r="B48" t="s">
         <v>75</v>
@@ -2912,7 +2878,7 @@
     </row>
     <row r="49" ht="72.5" spans="1:7">
       <c r="A49">
-        <v>10008</v>
+        <v>100508</v>
       </c>
       <c r="B49" t="s">
         <v>75</v>
@@ -2935,7 +2901,7 @@
     </row>
     <row r="50" ht="72.5" spans="1:7">
       <c r="A50">
-        <v>10009</v>
+        <v>100059</v>
       </c>
       <c r="B50" t="s">
         <v>75</v>
@@ -2958,7 +2924,7 @@
     </row>
     <row r="51" ht="72.5" spans="1:7">
       <c r="A51">
-        <v>10010</v>
+        <v>100710</v>
       </c>
       <c r="B51" t="s">
         <v>75</v>
@@ -2981,7 +2947,7 @@
     </row>
     <row r="52" ht="72.5" spans="1:7">
       <c r="A52">
-        <v>10011</v>
+        <v>107011</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
@@ -3004,7 +2970,7 @@
     </row>
     <row r="53" ht="72.5" spans="1:7">
       <c r="A53">
-        <v>10012</v>
+        <v>107012</v>
       </c>
       <c r="B53" t="s">
         <v>75</v>
@@ -3027,7 +2993,7 @@
     </row>
     <row r="54" ht="87" spans="1:7">
       <c r="A54">
-        <v>10013</v>
+        <v>100613</v>
       </c>
       <c r="B54" t="s">
         <v>75</v>
@@ -3050,7 +3016,7 @@
     </row>
     <row r="55" ht="72.5" spans="1:7">
       <c r="A55">
-        <v>10014</v>
+        <v>100614</v>
       </c>
       <c r="B55" t="s">
         <v>75</v>
@@ -3073,7 +3039,7 @@
     </row>
     <row r="56" ht="72.5" spans="1:7">
       <c r="A56">
-        <v>10015</v>
+        <v>106015</v>
       </c>
       <c r="B56" t="s">
         <v>79</v>
@@ -3096,7 +3062,7 @@
     </row>
     <row r="57" ht="72.5" spans="1:7">
       <c r="A57">
-        <v>10016</v>
+        <v>100916</v>
       </c>
       <c r="B57" t="s">
         <v>79</v>
@@ -3119,7 +3085,7 @@
     </row>
     <row r="58" ht="72.5" spans="1:7">
       <c r="A58">
-        <v>10017</v>
+        <v>100317</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
@@ -3142,7 +3108,7 @@
     </row>
     <row r="59" ht="72.5" spans="1:7">
       <c r="A59">
-        <v>10018</v>
+        <v>100118</v>
       </c>
       <c r="B59" t="s">
         <v>79</v>
@@ -3165,7 +3131,7 @@
     </row>
     <row r="60" ht="72.5" spans="1:7">
       <c r="A60">
-        <v>10019</v>
+        <v>100519</v>
       </c>
       <c r="B60" t="s">
         <v>79</v>
@@ -3188,7 +3154,7 @@
     </row>
     <row r="61" ht="72.5" spans="1:7">
       <c r="A61">
-        <v>10020</v>
+        <v>105020</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
@@ -3211,7 +3177,7 @@
     </row>
     <row r="62" ht="72.5" spans="1:7">
       <c r="A62">
-        <v>10021</v>
+        <v>100521</v>
       </c>
       <c r="B62" t="s">
         <v>79</v>
@@ -3234,7 +3200,7 @@
     </row>
     <row r="63" ht="72.5" spans="1:7">
       <c r="A63">
-        <v>10022</v>
+        <v>106022</v>
       </c>
       <c r="B63" t="s">
         <v>87</v>
@@ -3257,7 +3223,7 @@
     </row>
     <row r="64" ht="72.5" spans="1:7">
       <c r="A64">
-        <v>10023</v>
+        <v>105023</v>
       </c>
       <c r="B64" t="s">
         <v>87</v>
@@ -3280,7 +3246,7 @@
     </row>
     <row r="65" ht="72.5" spans="1:7">
       <c r="A65">
-        <v>10024</v>
+        <v>100724</v>
       </c>
       <c r="B65" t="s">
         <v>90</v>
@@ -3303,7 +3269,7 @@
     </row>
     <row r="66" ht="72.5" spans="1:7">
       <c r="A66">
-        <v>10025</v>
+        <v>106025</v>
       </c>
       <c r="B66" t="s">
         <v>90</v>
@@ -3326,7 +3292,7 @@
     </row>
     <row r="67" ht="72.5" spans="1:7">
       <c r="A67">
-        <v>10026</v>
+        <v>105026</v>
       </c>
       <c r="B67" t="s">
         <v>90</v>
@@ -3349,7 +3315,7 @@
     </row>
     <row r="68" ht="72.5" spans="1:7">
       <c r="A68">
-        <v>10027</v>
+        <v>160027</v>
       </c>
       <c r="B68" t="s">
         <v>94</v>
@@ -3372,7 +3338,7 @@
     </row>
     <row r="69" ht="72.5" spans="1:7">
       <c r="A69">
-        <v>10028</v>
+        <v>100628</v>
       </c>
       <c r="B69" t="s">
         <v>94</v>
@@ -3395,7 +3361,7 @@
     </row>
     <row r="70" ht="72.5" spans="1:7">
       <c r="A70">
-        <v>10029</v>
+        <v>170029</v>
       </c>
       <c r="B70" t="s">
         <v>94</v>
@@ -3418,7 +3384,7 @@
     </row>
     <row r="71" ht="72.5" spans="1:7">
       <c r="A71">
-        <v>10030</v>
+        <v>100370</v>
       </c>
       <c r="B71" t="s">
         <v>99</v>
@@ -3441,7 +3407,7 @@
     </row>
     <row r="72" ht="72.5" spans="1:7">
       <c r="A72">
-        <v>10031</v>
+        <v>100301</v>
       </c>
       <c r="B72" t="s">
         <v>99</v>
@@ -3466,11 +3432,17 @@
       <c r="A73">
         <v>10310</v>
       </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F73" t="s">
         <v>76</v>
@@ -3480,8 +3452,14 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>54</v>
+      <c r="A74">
+        <v>297713</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>105</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -3497,8 +3475,14 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>58</v>
+      <c r="A75">
+        <v>23451</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>105</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -3515,47 +3499,65 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>10126</v>
+        <v>10034</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>105</v>
       </c>
       <c r="D76" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F76" t="s">
         <v>76</v>
       </c>
       <c r="G76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="3">
+        <v>10089</v>
+      </c>
+      <c r="B77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>62</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" t="s">
-        <v>63</v>
-      </c>
-      <c r="F77" t="s">
-        <v>76</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>64</v>
+      <c r="A78">
+        <v>92576</v>
+      </c>
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
+        <v>66</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F78" t="s">
         <v>76</v>
@@ -3565,58 +3567,30 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>68</v>
+      <c r="A79">
+        <v>98790</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>66</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F79" t="s">
         <v>76</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F80" t="s">
-        <v>76</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81">
-        <v>10313</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" t="s">
-        <v>74</v>
-      </c>
-      <c r="F81" t="s">
-        <v>76</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M81" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M79" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -128,6 +128,9 @@
 	}</t>
   </si>
   <si>
+    <t>100j1</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "110",
@@ -318,7 +321,7 @@
     <t>{"value":"English","code":"eng"}</t>
   </si>
   <si>
-    <t>2977131f-7c1a-46c9-b353-fffdf9d7d419</t>
+    <t>2977131f-7</t>
   </si>
   <si>
     <t>userType</t>
@@ -330,7 +333,7 @@
     <t>{"code":"TEC","value":"Teacher"}</t>
   </si>
   <si>
-    <t>a96442c4-c896-46de-a3eb-d0bde318509f</t>
+    <t>a96442c4-c896</t>
   </si>
   <si>
     <t>{"code":"STU","value":"Student"}</t>
@@ -342,13 +345,13 @@
     <t>{"value":"عربي","code":"ara"}</t>
   </si>
   <si>
-    <t>7f49bbe1-0e44-44af-a382-7dafd9157fce</t>
+    <t>7f49bbe1-</t>
   </si>
   <si>
     <t>{"code":"NTE","value":"Non Teaching"}</t>
   </si>
   <si>
-    <t>8988e911-28f0-4c5c-ae32-e100db355895</t>
+    <t>2100db355895</t>
   </si>
   <si>
     <t>Handles</t>
@@ -360,7 +363,7 @@
     <t>{"code":"UN","value":"phone"}</t>
   </si>
   <si>
-    <t>925dd4bb-4fc3-4274-b186-1dfcac028974</t>
+    <t>925dd4bb-4fc3</t>
   </si>
   <si>
     <t xml:space="preserve">Handle feature </t>
@@ -369,7 +372,7 @@
     <t>{"code":"SL","value":"phone"}</t>
   </si>
   <si>
-    <t>09b541d7-da34-40c2-82ca-4940ed5b0d4e</t>
+    <t>09b541d7-da3</t>
   </si>
   <si>
     <t>selectedHandles</t>
@@ -379,6 +382,9 @@
   </si>
   <si>
     <t>{"value":"français","code":"fra"}</t>
+  </si>
+  <si>
+    <t>10Y301</t>
   </si>
   <si>
     <t>tipo de sangre</t>
@@ -537,6 +543,9 @@
 		"code": "NFR",
 		"value": "No extranjero"
 	}</t>
+  </si>
+  <si>
+    <t>10G310</t>
   </si>
   <si>
     <t>language</t>
@@ -1712,8 +1721,8 @@
   <sheetPr/>
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
@@ -1963,8 +1972,8 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" ht="72.5" spans="1:9">
-      <c r="A11">
-        <v>1001</v>
+      <c r="A11" t="s">
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1976,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2000,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -2024,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -2048,7 +2057,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -2072,7 +2081,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -2087,16 +2096,16 @@
         <v>10015</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -2111,16 +2120,16 @@
         <v>10016</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -2135,16 +2144,16 @@
         <v>10017</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -2159,16 +2168,16 @@
         <v>10018</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -2183,16 +2192,16 @@
         <v>10019</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -2207,16 +2216,16 @@
         <v>10020</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -2231,16 +2240,16 @@
         <v>10021</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -2255,16 +2264,16 @@
         <v>10022</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -2279,16 +2288,16 @@
         <v>10023</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -2303,16 +2312,16 @@
         <v>10024</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -2327,16 +2336,16 @@
         <v>10025</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -2351,16 +2360,16 @@
         <v>10026</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -2375,16 +2384,16 @@
         <v>10027</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -2399,16 +2408,16 @@
         <v>10028</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -2423,16 +2432,16 @@
         <v>10029</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -2447,16 +2456,16 @@
         <v>10030</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -2471,16 +2480,16 @@
         <v>10031</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -2495,16 +2504,16 @@
         <v>10310</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -2516,19 +2525,19 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -2541,19 +2550,19 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -2569,16 +2578,16 @@
         <v>10126</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -2590,19 +2599,19 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -2615,19 +2624,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -2639,19 +2648,19 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -2664,19 +2673,19 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -2692,16 +2701,16 @@
         <v>10313</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -2712,14 +2721,14 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" ht="72.5" spans="1:9">
-      <c r="A42">
-        <v>100301</v>
+      <c r="A42" t="s">
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -2728,7 +2737,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -2740,10 +2749,10 @@
         <v>100602</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -2752,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -2764,10 +2773,10 @@
         <v>100603</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -2776,7 +2785,7 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -2788,10 +2797,10 @@
         <v>100064</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -2800,7 +2809,7 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -2812,10 +2821,10 @@
         <v>100405</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -2824,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -2835,10 +2844,10 @@
         <v>105006</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -2847,7 +2856,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -2858,10 +2867,10 @@
         <v>100057</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -2870,7 +2879,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -2881,10 +2890,10 @@
         <v>100508</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -2893,7 +2902,7 @@
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -2904,10 +2913,10 @@
         <v>100059</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -2916,7 +2925,7 @@
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -2927,19 +2936,19 @@
         <v>100710</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -2950,19 +2959,19 @@
         <v>107011</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -2973,19 +2982,19 @@
         <v>107012</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -2996,19 +3005,19 @@
         <v>100613</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -3019,19 +3028,19 @@
         <v>100614</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -3042,19 +3051,19 @@
         <v>106015</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -3065,19 +3074,19 @@
         <v>100916</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3088,19 +3097,19 @@
         <v>100317</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -3111,19 +3120,19 @@
         <v>100118</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3134,19 +3143,19 @@
         <v>100519</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3157,19 +3166,19 @@
         <v>105020</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -3180,19 +3189,19 @@
         <v>100521</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -3203,19 +3212,19 @@
         <v>106022</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3226,19 +3235,19 @@
         <v>105023</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -3249,19 +3258,19 @@
         <v>100724</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -3269,22 +3278,22 @@
     </row>
     <row r="66" ht="72.5" spans="1:7">
       <c r="A66">
-        <v>106025</v>
+        <v>100724</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -3295,19 +3304,19 @@
         <v>105026</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -3318,19 +3327,19 @@
         <v>160027</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -3341,19 +3350,19 @@
         <v>100628</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3364,19 +3373,19 @@
         <v>170029</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3387,19 +3396,19 @@
         <v>100370</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -3410,42 +3419,42 @@
         <v>100301</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73">
-        <v>10310</v>
+      <c r="A73" t="s">
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -3456,19 +3465,19 @@
         <v>297713</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3479,19 +3488,19 @@
         <v>23451</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -3502,19 +3511,19 @@
         <v>10034</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -3525,19 +3534,19 @@
         <v>10089</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -3548,19 +3557,19 @@
         <v>92576</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -3571,19 +3580,19 @@
         <v>98790</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F79" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -485,6 +485,9 @@
 		"code": "101",
 		"value": "Levantar"
 	}</t>
+  </si>
+  <si>
+    <t>1007g24</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1721,8 +1724,8 @@
   <sheetPr/>
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
@@ -3277,8 +3280,8 @@
       </c>
     </row>
     <row r="66" ht="72.5" spans="1:7">
-      <c r="A66">
-        <v>100724</v>
+      <c r="A66" t="s">
+        <v>94</v>
       </c>
       <c r="B66" t="s">
         <v>92</v>
@@ -3290,7 +3293,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F66" t="s">
         <v>78</v>
@@ -3313,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F67" t="s">
         <v>78</v>
@@ -3327,16 +3330,16 @@
         <v>160027</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F68" t="s">
         <v>78</v>
@@ -3350,16 +3353,16 @@
         <v>100628</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F69" t="s">
         <v>78</v>
@@ -3373,16 +3376,16 @@
         <v>170029</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F70" t="s">
         <v>78</v>
@@ -3396,16 +3399,16 @@
         <v>100370</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F71" t="s">
         <v>78</v>
@@ -3419,16 +3422,16 @@
         <v>100301</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F72" t="s">
         <v>78</v>
@@ -3439,19 +3442,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F73" t="s">
         <v>78</v>
@@ -3468,7 +3471,7 @@
         <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -3491,7 +3494,7 @@
         <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -3514,7 +3517,7 @@
         <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
